--- a/months/may23/may23.xlsx
+++ b/months/may23/may23.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="vedomost" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="186">
   <si>
     <t xml:space="preserve">DATE</t>
   </si>
@@ -487,13 +487,13 @@
     <t xml:space="preserve">100*</t>
   </si>
   <si>
-    <t xml:space="preserve">{"1": 50, "0": 0}</t>
+    <t xml:space="preserve">{1: 50, 0: 0}</t>
   </si>
   <si>
     <t xml:space="preserve">40*</t>
   </si>
   <si>
-    <t xml:space="preserve">{"9": 25, "True": 0}</t>
+    <t xml:space="preserve">{9: 25, "True": 0}</t>
   </si>
   <si>
     <t xml:space="preserve">10*</t>
@@ -505,7 +505,10 @@
     <t xml:space="preserve">{"&lt;.23": "2*", "&gt;.23": "0", "&gt;.0": "-0.5*"}</t>
   </si>
   <si>
-    <t xml:space="preserve">{"9": 100, "True": 0}</t>
+    <t xml:space="preserve">{"&gt;=.4": "10*", "&gt;=.2": "5*", "&lt;.2": 0}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{9: 100, "True": 0}</t>
   </si>
   <si>
     <t xml:space="preserve">30*</t>
@@ -529,16 +532,19 @@
     <t xml:space="preserve">{"&lt;.22": "1.5*", "&lt;.23": "0.5*", "&gt;.23": "-2*"}</t>
   </si>
   <si>
-    <t xml:space="preserve">{"1": 50, "0": -100}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"9": 50, "True": 0}</t>
+    <t xml:space="preserve">{1: 50, 0: -100}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{9: 50, "True": 0}</t>
   </si>
   <si>
     <t xml:space="preserve">{"+": {"CDIF": 100, "P": 50}, "-": {"CDIFP": 0}}</t>
   </si>
   <si>
     <t xml:space="preserve">{"&lt;.23": "2*", "&gt;.23": "-0.5*", "&gt;.0": "-1.5*"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"&gt;=.4": "15*", "&gt;=.2": "10*", "&lt;.2": 0}</t>
   </si>
   <si>
     <t xml:space="preserve">False</t>
@@ -1090,17 +1096,17 @@
   </sheetPr>
   <dimension ref="A1:AK32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="S8" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="S1" activeCellId="0" sqref="S1"/>
-      <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="X16" activeCellId="0" sqref="X16"/>
+      <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="I6" activeCellId="0" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="4.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="6.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.43"/>
@@ -4756,7 +4762,7 @@
       <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="39.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="12.14"/>
@@ -4913,10 +4919,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ14"/>
+  <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z13" activeCellId="0" sqref="Z13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="W11" activeCellId="0" sqref="W11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4941,7 +4947,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="45.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="23.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="22" style="0" width="23.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="23.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="34.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="18.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="45.43"/>
@@ -5107,13 +5114,13 @@
         <v>0</v>
       </c>
       <c r="W2" s="32" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="X2" s="12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Y2" s="32" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Z2" s="32" t="s">
         <v>158</v>
@@ -5130,7 +5137,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="31" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B3" s="12" t="n">
         <v>-25</v>
@@ -5213,9 +5220,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="34" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>149</v>
@@ -5224,19 +5231,19 @@
         <v>157</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G4" s="32" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H4" s="32" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I4" s="33" t="n">
         <v>0</v>
@@ -5260,7 +5267,7 @@
         <v>50</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q4" s="32" t="s">
         <v>150</v>
@@ -5269,31 +5276,31 @@
         <v>150</v>
       </c>
       <c r="S4" s="32" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="T4" s="32" t="n">
         <v>100</v>
       </c>
       <c r="U4" s="32" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="V4" s="33" t="n">
         <v>0</v>
       </c>
       <c r="W4" s="32" t="s">
-        <v>150</v>
+        <v>173</v>
       </c>
       <c r="X4" s="12" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y4" s="32" t="s">
         <v>150</v>
       </c>
       <c r="Z4" s="32" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AA4" s="32" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AB4" s="33" t="n">
         <v>25</v>
@@ -5304,7 +5311,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="34" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B5" s="12" t="n">
         <v>-25</v>
@@ -5432,28 +5439,28 @@
         <v>1</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="R6" s="5" t="n">
         <v>1</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="V6" s="33" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="X6" s="4" t="n">
         <v>1</v>
@@ -5476,7 +5483,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="36" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B7" s="4" t="n">
         <v>0.75</v>
@@ -5565,7 +5572,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="37" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B8" s="4" t="n">
         <v>1.25</v>
@@ -5654,7 +5661,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="37" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B9" s="4" t="n">
         <v>1.5</v>
@@ -5832,7 +5839,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="38" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B11" s="4" t="n">
         <v>0.75</v>
@@ -5921,7 +5928,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="39" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B12" s="40" t="n">
         <v>1.25</v>
@@ -6010,7 +6017,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="39" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B13" s="40" t="n">
         <v>1</v>
@@ -6099,43 +6106,44 @@
     </row>
     <row r="14" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="33" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B14" s="40"/>
       <c r="D14" s="40"/>
       <c r="G14" s="0"/>
       <c r="H14" s="0"/>
       <c r="I14" s="42" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K14" s="42" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L14" s="40"/>
       <c r="N14" s="33" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="O14" s="41"/>
       <c r="Q14" s="42"/>
       <c r="S14" s="0"/>
       <c r="T14" s="42" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="U14" s="0"/>
       <c r="V14" s="42" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="W14" s="42"/>
       <c r="X14" s="42" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Y14" s="42"/>
       <c r="AB14" s="42" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AC14" s="42"/>
       <c r="AMJ14" s="0"/>
     </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <conditionalFormatting sqref="P6:AC13 A6:N13">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">

--- a/months/may23/may23.xlsx
+++ b/months/may23/may23.xlsx
@@ -4921,7 +4921,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Z1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="W11" activeCellId="0" sqref="W11"/>
     </sheetView>
   </sheetViews>

--- a/months/may23/may23.xlsx
+++ b/months/may23/may23.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="vedomost" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="194">
   <si>
     <t xml:space="preserve">DATE</t>
   </si>
@@ -82,6 +82,9 @@
     <t xml:space="preserve">0:11</t>
   </si>
   <si>
+    <t xml:space="preserve">+</t>
+  </si>
+  <si>
     <t xml:space="preserve">0:15</t>
   </si>
   <si>
@@ -121,7 +124,7 @@
     <t xml:space="preserve">L</t>
   </si>
   <si>
-    <t xml:space="preserve">zero</t>
+    <t xml:space="preserve">can`t</t>
   </si>
   <si>
     <t xml:space="preserve">0:00</t>
@@ -295,6 +298,33 @@
     <t xml:space="preserve">22:14</t>
   </si>
   <si>
+    <t xml:space="preserve">21:23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22:38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22:03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22:19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22:23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L1,E2</t>
+  </si>
+  <si>
     <t xml:space="preserve">увлажнители</t>
   </si>
   <si>
@@ -487,13 +517,13 @@
     <t xml:space="preserve">100*</t>
   </si>
   <si>
-    <t xml:space="preserve">{1: 50, 0: 0}</t>
+    <t xml:space="preserve">{"1": 50, "0": 0}</t>
   </si>
   <si>
     <t xml:space="preserve">40*</t>
   </si>
   <si>
-    <t xml:space="preserve">{9: 25, "True": 0}</t>
+    <t xml:space="preserve">{"9": 25, "+": 0}</t>
   </si>
   <si>
     <t xml:space="preserve">10*</t>
@@ -505,10 +535,7 @@
     <t xml:space="preserve">{"&lt;.23": "2*", "&gt;.23": "0", "&gt;.0": "-0.5*"}</t>
   </si>
   <si>
-    <t xml:space="preserve">{"&gt;=.4": "10*", "&gt;=.2": "5*", "&lt;.2": 0}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{9: 100, "True": 0}</t>
+    <t xml:space="preserve">{"9": 100, "+": 0}</t>
   </si>
   <si>
     <t xml:space="preserve">30*</t>
@@ -532,19 +559,16 @@
     <t xml:space="preserve">{"&lt;.22": "1.5*", "&lt;.23": "0.5*", "&gt;.23": "-2*"}</t>
   </si>
   <si>
-    <t xml:space="preserve">{1: 50, 0: -100}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{9: 50, "True": 0}</t>
+    <t xml:space="preserve">{"1": 50, "0": -100}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"9": 50, "+": 0}</t>
   </si>
   <si>
     <t xml:space="preserve">{"+": {"CDIF": 100, "P": 50}, "-": {"CDIFP": 0}}</t>
   </si>
   <si>
     <t xml:space="preserve">{"&lt;.23": "2*", "&gt;.23": "-0.5*", "&gt;.0": "-1.5*"}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"&gt;=.4": "15*", "&gt;=.2": "10*", "&lt;.2": 0}</t>
   </si>
   <si>
     <t xml:space="preserve">False</t>
@@ -761,7 +785,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -811,6 +835,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1096,15 +1124,15 @@
   </sheetPr>
   <dimension ref="A1:AK32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="Z12" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I6" activeCellId="0" sqref="I6"/>
+      <selection pane="topRight" activeCell="Z1" activeCellId="0" sqref="Z1"/>
+      <selection pane="bottomLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="bottomRight" activeCell="AA34" activeCellId="0" sqref="AA34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="4.43"/>
@@ -1136,7 +1164,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="4" width="7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="31" style="5" width="7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="11.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="5.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="5.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="7.43"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="36" min="36" style="4" width="8.57"/>
   </cols>
@@ -1281,7 +1309,7 @@
         <v/>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="n">
         <v>45047</v>
       </c>
@@ -1355,18 +1383,18 @@
         <v>11</v>
       </c>
       <c r="AD2" s="9" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AE2" s="10"/>
       <c r="AF2" s="3"/>
       <c r="AG2" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH2" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="n">
         <v>45048</v>
       </c>
@@ -1378,7 +1406,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
@@ -1388,14 +1416,14 @@
         <v>8</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L3" s="10"/>
       <c r="M3" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N3" s="7" t="s">
         <v>11</v>
@@ -1407,7 +1435,7 @@
       <c r="Q3" s="7"/>
       <c r="R3" s="9"/>
       <c r="S3" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T3" s="7" t="s">
         <v>12</v>
@@ -1427,24 +1455,24 @@
         <v>12</v>
       </c>
       <c r="AA3" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB3" s="7"/>
       <c r="AC3" s="7" t="s">
         <v>11</v>
       </c>
       <c r="AD3" s="9" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AE3" s="10" t="s">
         <v>11</v>
       </c>
       <c r="AF3" s="3"/>
       <c r="AG3" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="n">
         <v>45049</v>
       </c>
@@ -1456,18 +1484,18 @@
         <v>7</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>9</v>
@@ -1479,7 +1507,7 @@
         <v>11</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N4" s="7" t="s">
         <v>11</v>
@@ -1488,7 +1516,7 @@
         <v>12</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q4" s="7"/>
       <c r="R4" s="9" t="s">
@@ -1513,7 +1541,7 @@
         <v>12</v>
       </c>
       <c r="AA4" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AB4" s="7" t="s">
         <v>12</v>
@@ -1522,21 +1550,21 @@
         <v>11</v>
       </c>
       <c r="AD4" s="9" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AE4" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AF4" s="3"/>
       <c r="AG4" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AH4" s="10" t="s">
         <v>12</v>
       </c>
       <c r="AI4" s="10"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="n">
         <v>45050</v>
       </c>
@@ -1548,21 +1576,21 @@
         <v>7</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H5" s="9"/>
       <c r="I5" s="10" t="s">
         <v>8</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K5" s="9" t="s">
         <v>8</v>
       </c>
       <c r="L5" s="10"/>
       <c r="M5" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N5" s="7" t="s">
         <v>11</v>
@@ -1578,7 +1606,7 @@
         <v>11</v>
       </c>
       <c r="S5" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T5" s="7" t="s">
         <v>12</v>
@@ -1602,10 +1630,10 @@
         <v>12</v>
       </c>
       <c r="AC5" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AD5" s="9" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AE5" s="10" t="s">
         <v>11</v>
@@ -1615,7 +1643,7 @@
       <c r="AH5" s="10"/>
       <c r="AI5" s="10"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="n">
         <v>45051</v>
       </c>
@@ -1627,25 +1655,25 @@
         <v>7</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="10"/>
       <c r="J6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K6" s="9" t="s">
         <v>8</v>
       </c>
       <c r="L6" s="10"/>
       <c r="M6" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N6" s="7" t="s">
         <v>11</v>
@@ -1669,7 +1697,7 @@
         <v>15</v>
       </c>
       <c r="W6" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X6" s="10" t="s">
         <v>11</v>
@@ -1677,7 +1705,7 @@
       <c r="Y6" s="10"/>
       <c r="Z6" s="7"/>
       <c r="AA6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AB6" s="7" t="s">
         <v>12</v>
@@ -1686,16 +1714,16 @@
         <v>11</v>
       </c>
       <c r="AD6" s="9" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AE6" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AF6" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AG6" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AH6" s="10" t="s">
         <v>12</v>
@@ -1704,7 +1732,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="n">
         <v>45052</v>
       </c>
@@ -1717,7 +1745,7 @@
       </c>
       <c r="D7" s="7"/>
       <c r="H7" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I7" s="10" t="s">
         <v>8</v>
@@ -1737,14 +1765,14 @@
       </c>
       <c r="O7" s="7"/>
       <c r="P7" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="R7" s="12"/>
       <c r="S7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T7" s="7" t="s">
         <v>12</v>
@@ -1752,7 +1780,7 @@
       <c r="U7" s="7"/>
       <c r="V7" s="8"/>
       <c r="W7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X7" s="10"/>
       <c r="Y7" s="10" t="s">
@@ -1760,7 +1788,7 @@
       </c>
       <c r="Z7" s="7"/>
       <c r="AA7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AB7" s="7" t="s">
         <v>12</v>
@@ -1769,14 +1797,14 @@
         <v>11</v>
       </c>
       <c r="AD7" s="9" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AE7" s="10" t="s">
         <v>11</v>
       </c>
       <c r="AF7" s="3"/>
       <c r="AG7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH7" s="10" t="s">
         <v>12</v>
@@ -1798,26 +1826,26 @@
       </c>
       <c r="D8" s="7"/>
       <c r="F8" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I8" s="10" t="s">
         <v>8</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K8" s="8"/>
       <c r="L8" s="10" t="s">
         <v>11</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N8" s="7" t="s">
         <v>11</v>
@@ -1841,7 +1869,7 @@
         <v>15</v>
       </c>
       <c r="W8" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="X8" s="10"/>
       <c r="Y8" s="10"/>
@@ -1849,13 +1877,13 @@
         <v>12</v>
       </c>
       <c r="AA8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AB8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="AC8" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD8" s="9"/>
       <c r="AE8" s="10" t="s">
@@ -1863,13 +1891,13 @@
       </c>
       <c r="AF8" s="3"/>
       <c r="AG8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH8" s="10" t="s">
         <v>12</v>
       </c>
       <c r="AI8" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1888,16 +1916,16 @@
         <v>8</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N9" s="7" t="s">
         <v>11</v>
@@ -1911,7 +1939,7 @@
       </c>
       <c r="R9" s="9"/>
       <c r="S9" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T9" s="7" t="s">
         <v>12</v>
@@ -1925,26 +1953,26 @@
       <c r="Y9" s="10"/>
       <c r="Z9" s="7"/>
       <c r="AA9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AB9" s="7"/>
       <c r="AC9" s="7" t="s">
         <v>13</v>
       </c>
       <c r="AD9" s="9" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AE9" s="10"/>
       <c r="AF9" s="3"/>
       <c r="AG9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AH9" s="10"/>
       <c r="AI9" s="0" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="n">
         <v>45055</v>
       </c>
@@ -1956,39 +1984,39 @@
         <v>7</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I10" s="10" t="s">
         <v>8</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L10" s="10" t="s">
         <v>11</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="O10" s="7"/>
       <c r="P10" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q10" s="7"/>
       <c r="R10" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S10" s="7" t="s">
         <v>8</v>
@@ -2018,14 +2046,14 @@
         <v>16</v>
       </c>
       <c r="AD10" s="9" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AE10" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AF10" s="3"/>
       <c r="AG10" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AH10" s="10" t="s">
         <v>12</v>
@@ -2034,7 +2062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="n">
         <v>45056</v>
       </c>
@@ -2046,23 +2074,23 @@
         <v>7</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="10" t="s">
         <v>8</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L11" s="10" t="s">
         <v>11</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N11" s="7" t="s">
         <v>11</v>
@@ -2075,10 +2103,10 @@
         <v>12</v>
       </c>
       <c r="R11" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S11" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T11" s="7" t="s">
         <v>12</v>
@@ -2090,7 +2118,7 @@
         <v>15</v>
       </c>
       <c r="W11" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X11" s="10"/>
       <c r="Y11" s="10" t="s">
@@ -2098,23 +2126,23 @@
       </c>
       <c r="Z11" s="7"/>
       <c r="AA11" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AB11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="AC11" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD11" s="9" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AE11" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AF11" s="3"/>
       <c r="AG11" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AH11" s="10" t="s">
         <v>12</v>
@@ -2123,7 +2151,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="n">
         <v>45057</v>
       </c>
@@ -2135,29 +2163,29 @@
         <v>7</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="10" t="s">
         <v>8</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L12" s="10" t="s">
         <v>11</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N12" s="7" t="s">
         <v>11</v>
@@ -2171,7 +2199,7 @@
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T12" s="7" t="s">
         <v>12</v>
@@ -2189,7 +2217,7 @@
         <v>12</v>
       </c>
       <c r="AA12" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AB12" s="7" t="s">
         <v>12</v>
@@ -2201,13 +2229,13 @@
         <v>15</v>
       </c>
       <c r="AE12" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AF12" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG12" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AH12" s="10" t="s">
         <v>12</v>
@@ -2228,16 +2256,16 @@
         <v>7</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>8</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K13" s="9" t="s">
         <v>10</v>
@@ -2246,7 +2274,7 @@
         <v>11</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N13" s="7" t="s">
         <v>11</v>
@@ -2260,7 +2288,7 @@
       </c>
       <c r="R13" s="9"/>
       <c r="S13" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T13" s="7" t="s">
         <v>12</v>
@@ -2269,33 +2297,33 @@
         <v>12</v>
       </c>
       <c r="V13" s="8" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="W13" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="X13" s="10"/>
       <c r="Y13" s="10"/>
       <c r="Z13" s="7"/>
       <c r="AA13" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AB13" s="7"/>
       <c r="AC13" s="7"/>
       <c r="AD13" s="9" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AE13" s="10" t="s">
         <v>11</v>
       </c>
       <c r="AF13" s="3"/>
       <c r="AG13" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AH13" s="10"/>
       <c r="AI13" s="10"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="n">
         <v>45059</v>
       </c>
@@ -2307,31 +2335,31 @@
         <v>7</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>8</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L14" s="10" t="s">
         <v>11</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O14" s="7"/>
       <c r="P14" s="3"/>
@@ -2350,38 +2378,38 @@
         <v>15</v>
       </c>
       <c r="W14" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="X14" s="10"/>
       <c r="Y14" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Z14" s="7"/>
       <c r="AA14" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AB14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="AC14" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AD14" s="9" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AE14" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AF14" s="3"/>
       <c r="AG14" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH14" s="10" t="s">
         <v>12</v>
       </c>
       <c r="AI14" s="10"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="n">
         <v>45060</v>
       </c>
@@ -2397,30 +2425,30 @@
         <v>8</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="O15" s="7"/>
       <c r="P15" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q15" s="7" t="s">
         <v>12</v>
       </c>
       <c r="R15" s="9"/>
       <c r="S15" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="T15" s="7" t="s">
         <v>12</v>
@@ -2432,27 +2460,27 @@
         <v>15</v>
       </c>
       <c r="W15" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X15" s="10"/>
       <c r="Y15" s="10"/>
       <c r="Z15" s="7"/>
       <c r="AA15" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AB15" s="7"/>
       <c r="AC15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="AD15" s="9" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AE15" s="10" t="s">
         <v>11</v>
       </c>
       <c r="AF15" s="3"/>
       <c r="AG15" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AI15" s="0" t="n">
         <v>1</v>
@@ -2470,29 +2498,29 @@
         <v>7</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>8</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K16" s="9" t="s">
         <v>8</v>
       </c>
       <c r="L16" s="10"/>
       <c r="M16" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N16" s="7" t="s">
         <v>11</v>
@@ -2508,7 +2536,7 @@
         <v>11</v>
       </c>
       <c r="S16" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T16" s="7" t="s">
         <v>12</v>
@@ -2524,19 +2552,19 @@
       <c r="Y16" s="10"/>
       <c r="Z16" s="7"/>
       <c r="AA16" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AB16" s="7"/>
       <c r="AC16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="AD16" s="9" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AE16" s="10"/>
       <c r="AF16" s="3"/>
       <c r="AG16" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AH16" s="10" t="s">
         <v>12</v>
@@ -2557,29 +2585,29 @@
         <v>7</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>8</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K17" s="9" t="s">
         <v>8</v>
       </c>
       <c r="L17" s="10"/>
       <c r="M17" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N17" s="7" t="s">
         <v>11</v>
@@ -2595,7 +2623,7 @@
         <v>15</v>
       </c>
       <c r="W17" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="X17" s="10"/>
       <c r="Y17" s="10"/>
@@ -2603,7 +2631,7 @@
         <v>12</v>
       </c>
       <c r="AA17" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AB17" s="7" t="s">
         <v>12</v>
@@ -2613,7 +2641,7 @@
       <c r="AE17" s="10"/>
       <c r="AF17" s="3"/>
       <c r="AG17" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH17" s="10" t="s">
         <v>12</v>
@@ -2631,19 +2659,19 @@
         <v>7</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K18" s="9" t="s">
         <v>10</v>
@@ -2652,7 +2680,7 @@
         <v>11</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N18" s="7" t="s">
         <v>11</v>
@@ -2668,7 +2696,7 @@
         <v>13</v>
       </c>
       <c r="S18" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T18" s="7" t="s">
         <v>12</v>
@@ -2677,10 +2705,10 @@
         <v>12</v>
       </c>
       <c r="V18" s="8" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="W18" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="X18" s="10" t="s">
         <v>11</v>
@@ -2699,12 +2727,12 @@
         <v>11</v>
       </c>
       <c r="AD18" s="9" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AE18" s="10"/>
       <c r="AF18" s="3"/>
       <c r="AG18" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH18" s="10" t="s">
         <v>12</v>
@@ -2725,7 +2753,7 @@
         <v>7</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>1</v>
@@ -2735,14 +2763,14 @@
         <v>10</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L19" s="10"/>
       <c r="M19" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N19" s="7" t="s">
         <v>11</v>
@@ -2756,7 +2784,7 @@
         <v>11</v>
       </c>
       <c r="S19" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T19" s="7" t="s">
         <v>12</v>
@@ -2772,7 +2800,7 @@
       <c r="Y19" s="10"/>
       <c r="Z19" s="7"/>
       <c r="AA19" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB19" s="7" t="s">
         <v>12</v>
@@ -2785,10 +2813,10 @@
         <v>11</v>
       </c>
       <c r="AF19" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AG19" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AH19" s="10" t="s">
         <v>12</v>
@@ -2809,32 +2837,32 @@
         <v>7</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E20" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>10</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K20" s="9" t="s">
         <v>8</v>
       </c>
       <c r="L20" s="10"/>
       <c r="M20" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N20" s="7" t="s">
         <v>11</v>
@@ -2866,26 +2894,26 @@
       <c r="Y20" s="10"/>
       <c r="Z20" s="7"/>
       <c r="AA20" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB20" s="7"/>
       <c r="AC20" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD20" s="9" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AE20" s="10"/>
       <c r="AF20" s="3"/>
       <c r="AG20" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH20" s="10" t="s">
         <v>12</v>
       </c>
       <c r="AI20" s="10"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="n">
         <v>45066</v>
       </c>
@@ -2900,34 +2928,34 @@
         <v>1</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L21" s="10"/>
       <c r="M21" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>12</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q21" s="7"/>
       <c r="R21" s="9"/>
       <c r="S21" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T21" s="7" t="s">
         <v>12</v>
@@ -2937,26 +2965,26 @@
         <v>15</v>
       </c>
       <c r="W21" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X21" s="10"/>
       <c r="Y21" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="Z21" s="7" t="s">
-        <v>32</v>
+      <c r="Z21" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="AA21" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AB21" s="7" t="s">
         <v>12</v>
       </c>
       <c r="AC21" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AD21" s="9" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AE21" s="10"/>
       <c r="AF21" s="3"/>
@@ -2982,13 +3010,13 @@
         <v>1</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>8</v>
@@ -2999,7 +3027,7 @@
       <c r="K22" s="9"/>
       <c r="L22" s="10"/>
       <c r="M22" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N22" s="7" t="s">
         <v>11</v>
@@ -3025,7 +3053,7 @@
         <v>12</v>
       </c>
       <c r="AA22" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AB22" s="7" t="s">
         <v>12</v>
@@ -3036,19 +3064,19 @@
       <c r="AD22" s="9"/>
       <c r="AE22" s="10"/>
       <c r="AF22" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG22" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AH22" s="10" t="s">
         <v>12</v>
       </c>
       <c r="AI22" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="n">
         <v>45068</v>
       </c>
@@ -3060,7 +3088,7 @@
         <v>7</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E23" s="0" t="n">
         <v>1</v>
@@ -3070,14 +3098,14 @@
         <v>8</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K23" s="9" t="s">
         <v>8</v>
       </c>
       <c r="L23" s="10"/>
       <c r="M23" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N23" s="7" t="s">
         <v>11</v>
@@ -3091,7 +3119,7 @@
         <v>13</v>
       </c>
       <c r="S23" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T23" s="7" t="s">
         <v>12</v>
@@ -3101,29 +3129,29 @@
         <v>15</v>
       </c>
       <c r="W23" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="X23" s="10"/>
       <c r="Y23" s="10"/>
-      <c r="Z23" s="7" t="s">
-        <v>32</v>
+      <c r="Z23" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="AA23" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AB23" s="7"/>
       <c r="AC23" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AD23" s="9" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AE23" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AF23" s="3"/>
       <c r="AG23" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH23" s="10"/>
       <c r="AI23" s="10" t="s">
@@ -3142,19 +3170,19 @@
         <v>7</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E24" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>10</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K24" s="9" t="s">
         <v>10</v>
@@ -3163,7 +3191,7 @@
         <v>11</v>
       </c>
       <c r="M24" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N24" s="7" t="s">
         <v>11</v>
@@ -3175,7 +3203,7 @@
       <c r="Q24" s="7"/>
       <c r="R24" s="9"/>
       <c r="S24" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T24" s="7" t="s">
         <v>12</v>
@@ -3190,27 +3218,27 @@
         <v>11</v>
       </c>
       <c r="X24" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Y24" s="10"/>
       <c r="Z24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="AA24" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AB24" s="7"/>
       <c r="AC24" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AD24" s="9" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AE24" s="10" t="s">
         <v>11</v>
       </c>
       <c r="AF24" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG24" s="7" t="s">
         <v>9</v>
@@ -3219,7 +3247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="n">
         <v>45070</v>
       </c>
@@ -3231,31 +3259,31 @@
         <v>7</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L25" s="10" t="s">
         <v>11</v>
       </c>
       <c r="M25" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N25" s="7" t="s">
         <v>11</v>
@@ -3282,20 +3310,20 @@
         <v>11</v>
       </c>
       <c r="X25" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Y25" s="10"/>
       <c r="Z25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="AA25" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AB25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="AC25" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AD25" s="9"/>
       <c r="AE25" s="10" t="s">
@@ -3303,7 +3331,7 @@
       </c>
       <c r="AF25" s="3"/>
       <c r="AG25" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH25" s="10" t="s">
         <v>12</v>
@@ -3324,13 +3352,13 @@
         <v>7</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>9</v>
@@ -3342,7 +3370,7 @@
         <v>11</v>
       </c>
       <c r="M26" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N26" s="7" t="s">
         <v>11</v>
@@ -3354,7 +3382,7 @@
       <c r="Q26" s="3"/>
       <c r="R26" s="8"/>
       <c r="S26" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T26" s="7" t="s">
         <v>12</v>
@@ -3366,7 +3394,7 @@
         <v>15</v>
       </c>
       <c r="W26" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X26" s="10" t="s">
         <v>11</v>
@@ -3376,7 +3404,7 @@
       </c>
       <c r="Z26" s="7"/>
       <c r="AA26" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AB26" s="7" t="s">
         <v>12</v>
@@ -3385,12 +3413,12 @@
         <v>11</v>
       </c>
       <c r="AD26" s="9" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AE26" s="10"/>
       <c r="AF26" s="7"/>
       <c r="AG26" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AH26" s="10" t="s">
         <v>12</v>
@@ -3411,25 +3439,25 @@
         <v>7</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K27" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L27" s="10" t="s">
         <v>11</v>
       </c>
       <c r="M27" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N27" s="7" t="s">
         <v>11</v>
@@ -3443,7 +3471,7 @@
       </c>
       <c r="R27" s="8"/>
       <c r="S27" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T27" s="7" t="s">
         <v>12</v>
@@ -3452,7 +3480,7 @@
         <v>12</v>
       </c>
       <c r="V27" s="9" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="W27" s="10" t="s">
         <v>11</v>
@@ -3461,23 +3489,23 @@
       <c r="Y27" s="10"/>
       <c r="Z27" s="7"/>
       <c r="AA27" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AB27" s="7" t="s">
         <v>12</v>
       </c>
       <c r="AC27" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AD27" s="9" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AE27" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AF27" s="7"/>
       <c r="AG27" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH27" s="10" t="s">
         <v>12</v>
@@ -3486,7 +3514,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="n">
         <v>45073</v>
       </c>
@@ -3494,37 +3522,81 @@
         <f aca="false">IFERROR(WEEKDAY(A28,2),"")</f>
         <v>6</v>
       </c>
-      <c r="C28" s="7"/>
+      <c r="C28" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="F28" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H28" s="9"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L28" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="M28" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="N28" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="O28" s="7"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="7"/>
       <c r="R28" s="9"/>
-      <c r="S28" s="7"/>
-      <c r="T28" s="7"/>
-      <c r="U28" s="7"/>
-      <c r="V28" s="8"/>
-      <c r="W28" s="10"/>
+      <c r="S28" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="T28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="U28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="V28" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="W28" s="10" t="s">
+        <v>29</v>
+      </c>
       <c r="X28" s="10"/>
       <c r="Y28" s="10"/>
-      <c r="Z28" s="7"/>
-      <c r="AA28" s="7"/>
-      <c r="AB28" s="7"/>
-      <c r="AC28" s="7"/>
+      <c r="Z28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA28" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC28" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="AD28" s="9"/>
       <c r="AE28" s="10"/>
       <c r="AF28" s="3"/>
-      <c r="AG28" s="7"/>
-      <c r="AH28" s="10"/>
+      <c r="AG28" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH28" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI28" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="n">
@@ -3534,35 +3606,85 @@
         <f aca="false">IFERROR(WEEKDAY(A29,2),"")</f>
         <v>7</v>
       </c>
-      <c r="C29" s="7"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
+      <c r="C29" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="L29" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="M29" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="N29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="P29" s="3"/>
-      <c r="Q29" s="7"/>
+      <c r="Q29" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="R29" s="9"/>
-      <c r="S29" s="7"/>
-      <c r="T29" s="7"/>
-      <c r="U29" s="7"/>
-      <c r="V29" s="8"/>
-      <c r="W29" s="10"/>
-      <c r="X29" s="10"/>
+      <c r="S29" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="T29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="U29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="V29" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="W29" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="X29" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="Y29" s="10"/>
       <c r="Z29" s="7"/>
-      <c r="AA29" s="7"/>
-      <c r="AB29" s="7"/>
-      <c r="AC29" s="7"/>
-      <c r="AD29" s="9"/>
-      <c r="AE29" s="10"/>
+      <c r="AA29" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC29" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD29" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE29" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="AF29" s="3"/>
-      <c r="AG29" s="7"/>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AG29" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH29" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI29" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="n">
         <v>45075</v>
       </c>
@@ -3570,37 +3692,81 @@
         <f aca="false">IFERROR(WEEKDAY(A30,2),"")</f>
         <v>1</v>
       </c>
-      <c r="C30" s="7"/>
+      <c r="C30" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="D30" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H30" s="9"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L30" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="M30" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="N30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="P30" s="3"/>
-      <c r="Q30" s="7"/>
-      <c r="R30" s="9"/>
-      <c r="S30" s="7"/>
-      <c r="T30" s="7"/>
-      <c r="U30" s="7"/>
+      <c r="Q30" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="R30" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="S30" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="T30" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="U30" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="V30" s="8"/>
-      <c r="W30" s="10"/>
+      <c r="W30" s="10" t="s">
+        <v>95</v>
+      </c>
       <c r="X30" s="10"/>
       <c r="Y30" s="10"/>
       <c r="Z30" s="7"/>
-      <c r="AA30" s="7"/>
-      <c r="AB30" s="7"/>
-      <c r="AC30" s="7"/>
-      <c r="AD30" s="9"/>
-      <c r="AE30" s="10"/>
+      <c r="AA30" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB30" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC30" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD30" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE30" s="10" t="s">
+        <v>96</v>
+      </c>
       <c r="AF30" s="3"/>
-      <c r="AG30" s="7"/>
-      <c r="AH30" s="10"/>
+      <c r="AG30" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH30" s="10" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="n">
@@ -3610,39 +3776,92 @@
         <f aca="false">IFERROR(WEEKDAY(A31,2),"")</f>
         <v>2</v>
       </c>
-      <c r="C31" s="7"/>
+      <c r="C31" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="D31" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H31" s="9"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7"/>
-      <c r="O31" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K31" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L31" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="M31" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="N31" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="P31" s="3"/>
       <c r="Q31" s="7"/>
       <c r="R31" s="9"/>
-      <c r="S31" s="7"/>
-      <c r="T31" s="7"/>
-      <c r="U31" s="7"/>
-      <c r="V31" s="8"/>
-      <c r="W31" s="10"/>
-      <c r="X31" s="10"/>
+      <c r="S31" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="T31" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="U31" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="V31" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="W31" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="X31" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="Y31" s="10"/>
-      <c r="Z31" s="7"/>
-      <c r="AA31" s="7"/>
-      <c r="AB31" s="7"/>
-      <c r="AC31" s="7"/>
-      <c r="AD31" s="9"/>
-      <c r="AE31" s="10"/>
+      <c r="Z31" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA31" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB31" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC31" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD31" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE31" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="AF31" s="3"/>
-      <c r="AG31" s="7"/>
+      <c r="AG31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH31" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI31" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="n">
@@ -3652,39 +3871,84 @@
         <f aca="false">IFERROR(WEEKDAY(A32,2),"")</f>
         <v>3</v>
       </c>
-      <c r="C32" s="7"/>
+      <c r="C32" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="D32" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H32" s="8"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="9"/>
+        <v>21</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="I32" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K32" s="9" t="s">
+        <v>99</v>
+      </c>
       <c r="L32" s="10"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="7"/>
+      <c r="M32" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="9"/>
-      <c r="S32" s="7"/>
-      <c r="T32" s="7"/>
-      <c r="U32" s="7"/>
+      <c r="Q32" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="R32" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="S32" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="T32" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="U32" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="V32" s="8"/>
-      <c r="W32" s="10"/>
+      <c r="W32" s="10" t="s">
+        <v>29</v>
+      </c>
       <c r="X32" s="10"/>
-      <c r="Y32" s="10"/>
+      <c r="Y32" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="Z32" s="7"/>
-      <c r="AA32" s="7"/>
-      <c r="AB32" s="7"/>
-      <c r="AC32" s="7"/>
-      <c r="AD32" s="9"/>
-      <c r="AE32" s="10"/>
+      <c r="AA32" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB32" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC32" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD32" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE32" s="10" t="s">
+        <v>29</v>
+      </c>
       <c r="AF32" s="3"/>
-      <c r="AG32" s="7"/>
+      <c r="AG32" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH32" s="13" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B3:G4 AJ3:AK4 D5:D8 D11:D12 A2:V2 X3:AC19 H3:H25 H28:H32 M28:S32 M3:S25 L3:L32 B28:C32 V3:V19 V20:AC25 V28:AC32 X2:AK2 A1:AK1 T3:U32 J28:K32 J3:K25 A3:A32 AD3:AI32 I3:I32 B5:C25">
+  <conditionalFormatting sqref="B3:G4 AJ3:AK4 D5:D8 D11:D12 A2:V2 X3:AC19 H3:H25 H28:H32 M28:S32 M3:S25 L3:L32 B28:C32 V3:V19 V28:AC32 X2:AK2 A1:AK1 T3:U32 J28:K32 J3:K25 A3:A32 AD3:AI32 I3:I32 B5:C25 V20:AC25">
     <cfRule type="beginsWith" priority="2" operator="beginsWith" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="!" dxfId="0">
       <formula>LEFT(A1,LEN("!"))="!"</formula>
     </cfRule>
@@ -3699,7 +3963,7 @@
       <formula>LEFT(B26,LEN("!"))="!"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="31">
+  <dataValidations count="30">
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Время сна Арины" promptTitle="синтаксис: число,число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="J32" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
@@ -3752,7 +4016,7 @@
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Прогулки кодируем так:&#10;Имя родителя, число прогулок в день (или 2 если прогулка с 2мя детьми). Напирмер:&#10;L2,E1" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВАчисло" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="K3:K7 K9:K32" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Прогулки кодируем так:&#10;Имя родителя, число прогулок в день (или 2 если прогулка с 2мя детьми). Напирмер:&#10;L2,E1" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВАчисло" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="K2:K7 K9:K24 Z21 Z23 K25:K32" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3808,10 +4072,6 @@
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Прогулки кодируем так:&#10;Имя родителя, число прогулок в день (или 2 если прогулка с 2мя детьми). Напирмер:&#10;L2,E1" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВАчисло" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="K2" type="none">
-      <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Приучаем чертовку к кровати:&#10;Имя родителя, число процедур в день. &#10;Напирмер: L2,E1" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВАчисло" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="I2:I32" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
@@ -3848,891 +4108,891 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="13" width="11.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="14" width="4.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="14" width="5.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="14" width="13.28"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="5" style="14" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="14" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="14" width="39.85"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="11" style="14" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="14" width="11.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="15" width="4.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="15" width="5.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="15" width="13.28"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="5" style="15" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="15" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="15" width="39.85"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="11" style="15" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="15" t="str">
+      <c r="A1" s="16" t="str">
         <f aca="false">vedomost!A1</f>
         <v>DATE</v>
       </c>
-      <c r="B1" s="16" t="str">
+      <c r="B1" s="17" t="str">
         <f aca="false">vedomost!B1</f>
         <v>DAY</v>
       </c>
-      <c r="C1" s="17" t="str">
+      <c r="C1" s="18" t="str">
         <f aca="false">vedomost!F1</f>
         <v>DUTY</v>
       </c>
-      <c r="D1" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="K1" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="L1" s="18" t="s">
-        <v>98</v>
+      <c r="D1" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="15" t="n">
+      <c r="A2" s="16" t="n">
         <f aca="false">vedomost!A2</f>
         <v>45047</v>
       </c>
-      <c r="B2" s="20" t="n">
+      <c r="B2" s="21" t="n">
         <f aca="false">vedomost!B2</f>
         <v>1</v>
       </c>
-      <c r="C2" s="21" t="str">
+      <c r="C2" s="22" t="str">
         <f aca="false">IF(vedomost!F2=0,"",vedomost!F2)</f>
         <v/>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="K2" s="21"/>
-      <c r="L2" s="22"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="K2" s="22"/>
+      <c r="L2" s="23"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="24" t="n">
+      <c r="A3" s="25" t="n">
         <f aca="false">vedomost!A3</f>
         <v>45048</v>
       </c>
-      <c r="B3" s="20" t="n">
+      <c r="B3" s="21" t="n">
         <f aca="false">vedomost!B3</f>
         <v>2</v>
       </c>
-      <c r="C3" s="21" t="str">
+      <c r="C3" s="22" t="str">
         <f aca="false">IF(vedomost!F3=0,"",vedomost!F3)</f>
         <v/>
       </c>
-      <c r="D3" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="23" t="s">
+      <c r="D3" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="K3" s="21"/>
-      <c r="L3" s="22"/>
+      <c r="E3" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="K3" s="22"/>
+      <c r="L3" s="23"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="24" t="n">
+      <c r="A4" s="25" t="n">
         <f aca="false">vedomost!A4</f>
         <v>45049</v>
       </c>
-      <c r="B4" s="20" t="n">
+      <c r="B4" s="21" t="n">
         <f aca="false">vedomost!B4</f>
         <v>3</v>
       </c>
-      <c r="C4" s="21" t="str">
+      <c r="C4" s="22" t="str">
         <f aca="false">IF(vedomost!F4=0,"",vedomost!F4)</f>
         <v>24</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="H4" s="20"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="K4" s="21"/>
-      <c r="L4" s="22"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" s="21"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="K4" s="22"/>
+      <c r="L4" s="23"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="24" t="n">
+      <c r="A5" s="25" t="n">
         <f aca="false">vedomost!A5</f>
         <v>45050</v>
       </c>
-      <c r="B5" s="20" t="n">
+      <c r="B5" s="21" t="n">
         <f aca="false">vedomost!B5</f>
         <v>4</v>
       </c>
-      <c r="C5" s="21" t="str">
+      <c r="C5" s="22" t="str">
         <f aca="false">IF(vedomost!F5=0,"",vedomost!F5)</f>
         <v/>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="I5" s="22"/>
-      <c r="J5" s="23" t="s">
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="K5" s="21"/>
-      <c r="L5" s="22"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="I5" s="23"/>
+      <c r="J5" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="K5" s="22"/>
+      <c r="L5" s="23"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="24" t="n">
+      <c r="A6" s="25" t="n">
         <f aca="false">vedomost!A6</f>
         <v>45051</v>
       </c>
-      <c r="B6" s="20" t="n">
+      <c r="B6" s="21" t="n">
         <f aca="false">vedomost!B6</f>
         <v>5</v>
       </c>
-      <c r="C6" s="21" t="str">
+      <c r="C6" s="22" t="str">
         <f aca="false">IF(vedomost!F6=0,"",vedomost!F6)</f>
         <v>24</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="H6" s="20"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="23" t="s">
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="K6" s="21"/>
-      <c r="L6" s="22"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="K6" s="22"/>
+      <c r="L6" s="23"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="15" t="n">
+      <c r="A7" s="16" t="n">
         <f aca="false">vedomost!A7</f>
         <v>45052</v>
       </c>
-      <c r="B7" s="20" t="n">
+      <c r="B7" s="21" t="n">
         <f aca="false">vedomost!B7</f>
         <v>6</v>
       </c>
-      <c r="C7" s="21" t="str">
+      <c r="C7" s="22" t="str">
         <f aca="false">IF(vedomost!F7=0,"",vedomost!F7)</f>
         <v/>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="K7" s="21"/>
-      <c r="L7" s="22"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="K7" s="22"/>
+      <c r="L7" s="23"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="15" t="n">
+      <c r="A8" s="16" t="n">
         <f aca="false">vedomost!A8</f>
         <v>45053</v>
       </c>
-      <c r="B8" s="20" t="n">
+      <c r="B8" s="21" t="n">
         <f aca="false">vedomost!B8</f>
         <v>7</v>
       </c>
-      <c r="C8" s="21" t="str">
+      <c r="C8" s="22" t="str">
         <f aca="false">IF(vedomost!F8=0,"",vedomost!F8)</f>
         <v>24</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="K8" s="21"/>
-      <c r="L8" s="22"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="K8" s="22"/>
+      <c r="L8" s="23"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="15" t="n">
+      <c r="A9" s="16" t="n">
         <f aca="false">vedomost!A9</f>
         <v>45054</v>
       </c>
-      <c r="B9" s="20" t="n">
+      <c r="B9" s="21" t="n">
         <f aca="false">vedomost!B9</f>
         <v>1</v>
       </c>
-      <c r="C9" s="21" t="str">
+      <c r="C9" s="22" t="str">
         <f aca="false">IF(vedomost!F9=0,"",vedomost!F9)</f>
         <v/>
       </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="K9" s="21"/>
-      <c r="L9" s="22"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="K9" s="22"/>
+      <c r="L9" s="23"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="15" t="n">
+      <c r="A10" s="16" t="n">
         <f aca="false">vedomost!A10</f>
         <v>45055</v>
       </c>
-      <c r="B10" s="20" t="n">
+      <c r="B10" s="21" t="n">
         <f aca="false">vedomost!B10</f>
         <v>2</v>
       </c>
-      <c r="C10" s="21" t="str">
+      <c r="C10" s="22" t="str">
         <f aca="false">IF(vedomost!F10=0,"",vedomost!F10)</f>
         <v>24</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="K10" s="21"/>
-      <c r="L10" s="22"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="K10" s="22"/>
+      <c r="L10" s="23"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="24" t="n">
+      <c r="A11" s="25" t="n">
         <f aca="false">vedomost!A11</f>
         <v>45056</v>
       </c>
-      <c r="B11" s="20" t="n">
+      <c r="B11" s="21" t="n">
         <f aca="false">vedomost!B11</f>
         <v>3</v>
       </c>
-      <c r="C11" s="21" t="str">
+      <c r="C11" s="22" t="str">
         <f aca="false">IF(vedomost!F11=0,"",vedomost!F11)</f>
         <v/>
       </c>
-      <c r="D11" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="J11" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="K11" s="21"/>
-      <c r="L11" s="22"/>
+      <c r="D11" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="J11" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="K11" s="22"/>
+      <c r="L11" s="23"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="24" t="n">
+      <c r="A12" s="25" t="n">
         <f aca="false">vedomost!A12</f>
         <v>45057</v>
       </c>
-      <c r="B12" s="20" t="n">
+      <c r="B12" s="21" t="n">
         <f aca="false">vedomost!B12</f>
         <v>4</v>
       </c>
-      <c r="C12" s="21" t="str">
+      <c r="C12" s="22" t="str">
         <f aca="false">IF(vedomost!F12=0,"",vedomost!F12)</f>
         <v>8</v>
       </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="22"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="23"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="24" t="n">
+      <c r="A13" s="25" t="n">
         <f aca="false">vedomost!A13</f>
         <v>45058</v>
       </c>
-      <c r="B13" s="20" t="n">
+      <c r="B13" s="21" t="n">
         <f aca="false">vedomost!B13</f>
         <v>5</v>
       </c>
-      <c r="C13" s="21" t="str">
+      <c r="C13" s="22" t="str">
         <f aca="false">IF(vedomost!F13=0,"",vedomost!F13)</f>
         <v/>
       </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="I13" s="22"/>
-      <c r="J13" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="K13" s="21"/>
-      <c r="L13" s="22"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="I13" s="23"/>
+      <c r="J13" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="K13" s="22"/>
+      <c r="L13" s="23"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="15" t="n">
+      <c r="A14" s="16" t="n">
         <f aca="false">vedomost!A14</f>
         <v>45059</v>
       </c>
-      <c r="B14" s="20" t="n">
+      <c r="B14" s="21" t="n">
         <f aca="false">vedomost!B14</f>
         <v>6</v>
       </c>
-      <c r="C14" s="21" t="str">
+      <c r="C14" s="22" t="str">
         <f aca="false">IF(vedomost!F14=0,"",vedomost!F14)</f>
         <v>24</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="H14" s="20"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="22"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="H14" s="21"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="23"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="15" t="n">
+      <c r="A15" s="16" t="n">
         <f aca="false">vedomost!A15</f>
         <v>45060</v>
       </c>
-      <c r="B15" s="20" t="n">
+      <c r="B15" s="21" t="n">
         <f aca="false">vedomost!B15</f>
         <v>7</v>
       </c>
-      <c r="C15" s="21" t="str">
+      <c r="C15" s="22" t="str">
         <f aca="false">IF(vedomost!F15=0,"",vedomost!F15)</f>
         <v/>
       </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="K15" s="17"/>
-      <c r="L15" s="18"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="K15" s="18"/>
+      <c r="L15" s="19"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="24" t="n">
+      <c r="A16" s="25" t="n">
         <f aca="false">vedomost!A16</f>
         <v>45061</v>
       </c>
-      <c r="B16" s="20" t="n">
+      <c r="B16" s="21" t="n">
         <f aca="false">vedomost!B16</f>
         <v>1</v>
       </c>
-      <c r="C16" s="21" t="str">
+      <c r="C16" s="22" t="str">
         <f aca="false">IF(vedomost!F16=0,"",vedomost!F16)</f>
         <v>8</v>
       </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="K16" s="21"/>
-      <c r="L16" s="22"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="K16" s="22"/>
+      <c r="L16" s="23"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="24" t="n">
+      <c r="A17" s="25" t="n">
         <f aca="false">vedomost!A17</f>
         <v>45062</v>
       </c>
-      <c r="B17" s="20" t="n">
+      <c r="B17" s="21" t="n">
         <f aca="false">vedomost!B17</f>
         <v>2</v>
       </c>
-      <c r="C17" s="21" t="str">
+      <c r="C17" s="22" t="str">
         <f aca="false">IF(vedomost!F17=0,"",vedomost!F17)</f>
         <v>24</v>
       </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="H17" s="20"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="K17" s="21"/>
-      <c r="L17" s="22"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="H17" s="21"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="K17" s="22"/>
+      <c r="L17" s="23"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="24" t="n">
+      <c r="A18" s="25" t="n">
         <f aca="false">vedomost!A18</f>
         <v>45063</v>
       </c>
-      <c r="B18" s="20" t="n">
+      <c r="B18" s="21" t="n">
         <f aca="false">vedomost!B18</f>
         <v>3</v>
       </c>
-      <c r="C18" s="21" t="str">
+      <c r="C18" s="22" t="str">
         <f aca="false">IF(vedomost!F18=0,"",vedomost!F18)</f>
         <v/>
       </c>
-      <c r="D18" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="K18" s="21"/>
-      <c r="L18" s="22"/>
+      <c r="D18" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="K18" s="22"/>
+      <c r="L18" s="23"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="24" t="n">
+      <c r="A19" s="25" t="n">
         <f aca="false">vedomost!A19</f>
         <v>45064</v>
       </c>
-      <c r="B19" s="20" t="n">
+      <c r="B19" s="21" t="n">
         <f aca="false">vedomost!B19</f>
         <v>4</v>
       </c>
-      <c r="C19" s="21" t="str">
+      <c r="C19" s="22" t="str">
         <f aca="false">IF(vedomost!F19=0,"",vedomost!F19)</f>
         <v/>
       </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="G19" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="H19" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="I19" s="22"/>
-      <c r="J19" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="K19" s="21"/>
-      <c r="L19" s="22"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="I19" s="23"/>
+      <c r="J19" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="K19" s="22"/>
+      <c r="L19" s="23"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="24" t="n">
+      <c r="A20" s="25" t="n">
         <f aca="false">vedomost!A20</f>
         <v>45065</v>
       </c>
-      <c r="B20" s="20" t="n">
+      <c r="B20" s="21" t="n">
         <f aca="false">vedomost!B20</f>
         <v>5</v>
       </c>
-      <c r="C20" s="21" t="str">
+      <c r="C20" s="22" t="str">
         <f aca="false">IF(vedomost!F20=0,"",vedomost!F20)</f>
         <v>24</v>
       </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="H20" s="20"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="K20" s="21"/>
-      <c r="L20" s="22"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="H20" s="21"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="K20" s="22"/>
+      <c r="L20" s="23"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="15" t="n">
+      <c r="A21" s="16" t="n">
         <f aca="false">vedomost!A21</f>
         <v>45066</v>
       </c>
-      <c r="B21" s="20" t="n">
+      <c r="B21" s="21" t="n">
         <f aca="false">vedomost!B21</f>
         <v>6</v>
       </c>
-      <c r="C21" s="21" t="str">
+      <c r="C21" s="22" t="str">
         <f aca="false">IF(vedomost!F21=0,"",vedomost!F21)</f>
         <v/>
       </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="K21" s="21"/>
-      <c r="L21" s="22"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="K21" s="22"/>
+      <c r="L21" s="23"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="15" t="n">
+      <c r="A22" s="16" t="n">
         <f aca="false">vedomost!A22</f>
         <v>45067</v>
       </c>
-      <c r="B22" s="20" t="n">
+      <c r="B22" s="21" t="n">
         <f aca="false">vedomost!B22</f>
         <v>7</v>
       </c>
-      <c r="C22" s="21" t="str">
+      <c r="C22" s="22" t="str">
         <f aca="false">IF(vedomost!F22=0,"",vedomost!F22)</f>
         <v>24</v>
       </c>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="H22" s="20"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="K22" s="21"/>
-      <c r="L22" s="22"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="H22" s="21"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="K22" s="22"/>
+      <c r="L22" s="23"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="24" t="n">
+      <c r="A23" s="25" t="n">
         <f aca="false">vedomost!A23</f>
         <v>45068</v>
       </c>
-      <c r="B23" s="20" t="n">
+      <c r="B23" s="21" t="n">
         <f aca="false">vedomost!B23</f>
         <v>1</v>
       </c>
-      <c r="C23" s="21" t="str">
+      <c r="C23" s="22" t="str">
         <f aca="false">IF(vedomost!F23=0,"",vedomost!F23)</f>
         <v/>
       </c>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="22"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="23"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="24" t="n">
+      <c r="A24" s="25" t="n">
         <f aca="false">vedomost!A24</f>
         <v>45069</v>
       </c>
-      <c r="B24" s="20" t="n">
+      <c r="B24" s="21" t="n">
         <f aca="false">vedomost!B24</f>
         <v>2</v>
       </c>
-      <c r="C24" s="21" t="str">
+      <c r="C24" s="22" t="str">
         <f aca="false">IF(vedomost!F24=0,"",vedomost!F24)</f>
         <v/>
       </c>
-      <c r="D24" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="H24" s="20"/>
-      <c r="I24" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="J24" s="23"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="22"/>
+      <c r="D24" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="H24" s="21"/>
+      <c r="I24" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="J24" s="24"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="23"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="24" t="n">
+      <c r="A25" s="25" t="n">
         <f aca="false">vedomost!A25</f>
         <v>45070</v>
       </c>
-      <c r="B25" s="20" t="n">
+      <c r="B25" s="21" t="n">
         <f aca="false">vedomost!B25</f>
         <v>3</v>
       </c>
-      <c r="C25" s="21" t="str">
+      <c r="C25" s="22" t="str">
         <f aca="false">IF(vedomost!F25=0,"",vedomost!F25)</f>
         <v>24</v>
       </c>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="22"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="23"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="24" t="n">
+      <c r="A26" s="25" t="n">
         <f aca="false">vedomost!A26</f>
         <v>45071</v>
       </c>
-      <c r="B26" s="20" t="n">
+      <c r="B26" s="21" t="n">
         <f aca="false">vedomost!B26</f>
         <v>4</v>
       </c>
-      <c r="C26" s="21" t="str">
+      <c r="C26" s="22" t="str">
         <f aca="false">IF(vedomost!F26=0,"",vedomost!F26)</f>
         <v/>
       </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="I26" s="22"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="22"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="I26" s="23"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="23"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="24" t="n">
+      <c r="A27" s="25" t="n">
         <f aca="false">vedomost!A27</f>
         <v>45072</v>
       </c>
-      <c r="B27" s="20" t="n">
+      <c r="B27" s="21" t="n">
         <f aca="false">vedomost!B27</f>
         <v>5</v>
       </c>
-      <c r="C27" s="21" t="str">
+      <c r="C27" s="22" t="str">
         <f aca="false">IF(vedomost!F27=0,"",vedomost!F27)</f>
         <v/>
       </c>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="G27" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="H27" s="20"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="22"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="H27" s="21"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="23"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="15" t="n">
+      <c r="A28" s="16" t="n">
         <f aca="false">vedomost!A28</f>
         <v>45073</v>
       </c>
-      <c r="B28" s="20" t="n">
+      <c r="B28" s="21" t="n">
         <f aca="false">vedomost!B28</f>
         <v>6</v>
       </c>
-      <c r="C28" s="21" t="str">
+      <c r="C28" s="22" t="str">
         <f aca="false">IF(vedomost!F28=0,"",vedomost!F28)</f>
         <v>24</v>
       </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="H28" s="20"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="22"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="H28" s="21"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="23"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="15" t="n">
+      <c r="A29" s="16" t="n">
         <f aca="false">vedomost!A29</f>
         <v>45074</v>
       </c>
-      <c r="B29" s="20" t="n">
+      <c r="B29" s="21" t="n">
         <f aca="false">vedomost!B29</f>
         <v>7</v>
       </c>
-      <c r="C29" s="21" t="str">
+      <c r="C29" s="22" t="str">
         <f aca="false">IF(vedomost!F29=0,"",vedomost!F29)</f>
         <v/>
       </c>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="22"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="23"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="24" t="n">
+      <c r="A30" s="25" t="n">
         <f aca="false">vedomost!A30</f>
         <v>45075</v>
       </c>
-      <c r="B30" s="20" t="n">
+      <c r="B30" s="21" t="n">
         <f aca="false">vedomost!B30</f>
         <v>1</v>
       </c>
-      <c r="C30" s="21" t="str">
+      <c r="C30" s="22" t="str">
         <f aca="false">IF(vedomost!F30=0,"",vedomost!F30)</f>
         <v/>
       </c>
-      <c r="D30" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="E30" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="F30" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="G30" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="H30" s="20"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="22"/>
+      <c r="D30" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="G30" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="H30" s="21"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="23"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="24" t="n">
+      <c r="A31" s="25" t="n">
         <f aca="false">vedomost!A31</f>
         <v>45076</v>
       </c>
-      <c r="B31" s="20" t="n">
+      <c r="B31" s="21" t="n">
         <f aca="false">vedomost!B31</f>
         <v>2</v>
       </c>
-      <c r="C31" s="21" t="str">
+      <c r="C31" s="22" t="str">
         <f aca="false">IF(vedomost!F31=0,"",vedomost!F31)</f>
         <v>24</v>
       </c>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="H31" s="20"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="22"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="H31" s="21"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="23"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="24" t="n">
+      <c r="A32" s="25" t="n">
         <f aca="false">vedomost!A32</f>
         <v>45077</v>
       </c>
-      <c r="B32" s="20" t="n">
+      <c r="B32" s="21" t="n">
         <f aca="false">vedomost!B32</f>
         <v>3</v>
       </c>
-      <c r="C32" s="21" t="str">
+      <c r="C32" s="22" t="str">
         <f aca="false">IF(vedomost!F32=0,"",vedomost!F32)</f>
         <v/>
       </c>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="I32" s="22"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="22"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="I32" s="23"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="23"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -4762,7 +5022,7 @@
       <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="39.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="12.14"/>
@@ -4771,114 +5031,114 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
+      <c r="A1" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="27" t="s">
-        <v>99</v>
+      <c r="A2" s="28" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="27" t="s">
-        <v>100</v>
+      <c r="A3" s="28" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="28" t="s">
-        <v>101</v>
+      <c r="A4" s="29" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="28" t="s">
-        <v>102</v>
+      <c r="A5" s="29" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="28" t="s">
-        <v>103</v>
+      <c r="A6" s="29" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="28" t="s">
-        <v>104</v>
+      <c r="A7" s="29" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="28" t="s">
-        <v>105</v>
+      <c r="A8" s="29" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="29" t="s">
-        <v>106</v>
+      <c r="A9" s="30" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="30" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="29" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="28" t="s">
-        <v>108</v>
-      </c>
-    </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="26"/>
+      <c r="B12" s="27"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="25" t="s">
-        <v>110</v>
+      <c r="A15" s="26" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -4919,18 +5179,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ1048576"/>
+  <dimension ref="A1:AC14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Z1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W11" activeCellId="0" sqref="W11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Y1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Z10" activeCellId="0" sqref="Z10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="39.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="39.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="39.28"/>
@@ -4947,8 +5207,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="45.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="23.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="23.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="34.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="22" style="0" width="23.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="18.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="45.43"/>
@@ -4958,442 +5217,442 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="30" t="s">
-        <v>119</v>
+      <c r="A1" s="31" t="s">
+        <v>129</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="P1" s="9" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="R1" s="10" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="S1" s="10" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="X1" s="9" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="Z1" s="10" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="31" t="s">
-        <v>148</v>
+      <c r="A2" s="32" t="s">
+        <v>158</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="C2" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="I2" s="34" t="n">
+        <v>50</v>
+      </c>
+      <c r="J2" s="34" t="n">
+        <v>50</v>
+      </c>
+      <c r="K2" s="33" t="n">
         <v>150</v>
       </c>
-      <c r="D2" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="F2" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="G2" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="H2" s="32" t="s">
-        <v>154</v>
-      </c>
-      <c r="I2" s="33" t="n">
+      <c r="L2" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="M2" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="N2" s="33" t="n">
         <v>50</v>
       </c>
-      <c r="J2" s="33" t="n">
+      <c r="O2" s="33" t="n">
+        <v>100</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q2" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="R2" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="S2" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="T2" s="33" t="n">
         <v>50</v>
       </c>
-      <c r="K2" s="32" t="n">
-        <v>150</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="M2" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="N2" s="32" t="n">
+      <c r="U2" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="V2" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="X2" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y2" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z2" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="AA2" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="AB2" s="34" t="n">
         <v>50</v>
       </c>
-      <c r="O2" s="32" t="n">
-        <v>100</v>
-      </c>
-      <c r="P2" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q2" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="R2" s="32" t="s">
-        <v>150</v>
-      </c>
-      <c r="S2" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="T2" s="32" t="n">
-        <v>50</v>
-      </c>
-      <c r="U2" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="V2" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" s="32" t="s">
+      <c r="AC2" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="X2" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y2" s="32" t="s">
-        <v>162</v>
-      </c>
-      <c r="Z2" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="AA2" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="AB2" s="33" t="n">
-        <v>50</v>
-      </c>
-      <c r="AC2" s="33" t="s">
-        <v>150</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="31" t="s">
-        <v>163</v>
+      <c r="A3" s="32" t="s">
+        <v>172</v>
       </c>
       <c r="B3" s="12" t="n">
         <v>-25</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32" t="n">
+      <c r="C3" s="33"/>
+      <c r="D3" s="33" t="n">
         <v>-50</v>
       </c>
       <c r="E3" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="F3" s="32" t="n">
+      <c r="F3" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="G3" s="32" t="n">
+      <c r="G3" s="33" t="n">
         <v>50</v>
       </c>
-      <c r="H3" s="32" t="n">
+      <c r="H3" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="I3" s="33" t="n">
+      <c r="I3" s="34" t="n">
         <v>-50</v>
       </c>
-      <c r="J3" s="33" t="n">
+      <c r="J3" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="K3" s="32" t="n">
+      <c r="K3" s="33" t="n">
         <v>-25</v>
       </c>
       <c r="L3" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32" t="n">
+      <c r="M3" s="33"/>
+      <c r="N3" s="33" t="n">
         <v>-50</v>
       </c>
-      <c r="O3" s="32" t="n">
+      <c r="O3" s="33" t="n">
         <v>0</v>
       </c>
       <c r="P3" s="12" t="n">
         <v>-50</v>
       </c>
-      <c r="Q3" s="32" t="n">
+      <c r="Q3" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="R3" s="32" t="n">
+      <c r="R3" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="S3" s="32" t="n">
+      <c r="S3" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="T3" s="32" t="n">
+      <c r="T3" s="33" t="n">
         <v>-50</v>
       </c>
-      <c r="U3" s="33" t="n">
+      <c r="U3" s="34" t="n">
         <v>-50</v>
       </c>
-      <c r="V3" s="33" t="n">
+      <c r="V3" s="34" t="n">
         <v>-50</v>
       </c>
-      <c r="W3" s="32" t="n">
+      <c r="W3" s="33" t="n">
         <v>0</v>
       </c>
       <c r="X3" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="Y3" s="32" t="n">
+      <c r="Y3" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="Z3" s="32" t="n">
+      <c r="Z3" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="AA3" s="32" t="n">
+      <c r="AA3" s="33" t="n">
         <v>-50</v>
       </c>
-      <c r="AB3" s="33" t="n">
+      <c r="AB3" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="AC3" s="33" t="n">
+      <c r="AC3" s="34" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="34" t="s">
-        <v>164</v>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="35" t="s">
+        <v>173</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>165</v>
+        <v>159</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>174</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="F4" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="H4" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="I4" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="34" t="n">
+        <v>50</v>
+      </c>
+      <c r="K4" s="33" t="n">
+        <v>50</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="M4" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="N4" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="33" t="n">
+        <v>50</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q4" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="R4" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="S4" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="T4" s="33" t="n">
+        <v>100</v>
+      </c>
+      <c r="U4" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="V4" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="X4" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y4" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z4" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="AA4" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB4" s="34" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC4" s="34" t="s">
         <v>167</v>
       </c>
-      <c r="G4" s="32" t="s">
-        <v>168</v>
-      </c>
-      <c r="H4" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="I4" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="33" t="n">
-        <v>50</v>
-      </c>
-      <c r="K4" s="32" t="n">
-        <v>50</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="M4" s="32" t="s">
-        <v>150</v>
-      </c>
-      <c r="N4" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="32" t="n">
-        <v>50</v>
-      </c>
-      <c r="P4" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q4" s="32" t="s">
-        <v>150</v>
-      </c>
-      <c r="R4" s="32" t="s">
-        <v>150</v>
-      </c>
-      <c r="S4" s="32" t="s">
-        <v>171</v>
-      </c>
-      <c r="T4" s="32" t="n">
-        <v>100</v>
-      </c>
-      <c r="U4" s="32" t="s">
-        <v>172</v>
-      </c>
-      <c r="V4" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" s="32" t="s">
-        <v>173</v>
-      </c>
-      <c r="X4" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="Y4" s="32" t="s">
-        <v>150</v>
-      </c>
-      <c r="Z4" s="32" t="s">
-        <v>171</v>
-      </c>
-      <c r="AA4" s="32" t="s">
-        <v>172</v>
-      </c>
-      <c r="AB4" s="33" t="n">
-        <v>25</v>
-      </c>
-      <c r="AC4" s="33" t="s">
-        <v>157</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="34" t="s">
-        <v>174</v>
+      <c r="A5" s="35" t="s">
+        <v>182</v>
       </c>
       <c r="B5" s="12" t="n">
         <v>-25</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32" t="n">
+      <c r="C5" s="33"/>
+      <c r="D5" s="33" t="n">
         <v>-50</v>
       </c>
       <c r="E5" s="12" t="n">
         <v>-50</v>
       </c>
-      <c r="F5" s="32" t="n">
+      <c r="F5" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="G5" s="32" t="n">
+      <c r="G5" s="33" t="n">
         <v>-50</v>
       </c>
-      <c r="H5" s="32" t="n">
+      <c r="H5" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="I5" s="33" t="n">
+      <c r="I5" s="34" t="n">
         <v>-50</v>
       </c>
-      <c r="J5" s="33" t="n">
+      <c r="J5" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="K5" s="32" t="n">
+      <c r="K5" s="33" t="n">
         <v>-50</v>
       </c>
       <c r="L5" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32" t="n">
+      <c r="M5" s="33"/>
+      <c r="N5" s="33" t="n">
         <v>-50</v>
       </c>
-      <c r="O5" s="32" t="n">
+      <c r="O5" s="33" t="n">
         <v>-50</v>
       </c>
       <c r="P5" s="12" t="n">
         <v>-50</v>
       </c>
-      <c r="Q5" s="32" t="n">
+      <c r="Q5" s="33" t="n">
         <v>-50</v>
       </c>
-      <c r="R5" s="32"/>
-      <c r="S5" s="32" t="n">
+      <c r="R5" s="33"/>
+      <c r="S5" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="T5" s="32" t="n">
+      <c r="T5" s="33" t="n">
         <v>-25</v>
       </c>
-      <c r="U5" s="32" t="n">
+      <c r="U5" s="33" t="n">
         <v>-50</v>
       </c>
-      <c r="V5" s="33" t="n">
+      <c r="V5" s="34" t="n">
         <v>-50</v>
       </c>
-      <c r="W5" s="32" t="n">
+      <c r="W5" s="33" t="n">
         <v>0</v>
       </c>
       <c r="X5" s="12" t="n">
         <v>-50</v>
       </c>
-      <c r="Y5" s="32" t="n">
+      <c r="Y5" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="Z5" s="32" t="n">
+      <c r="Z5" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="AA5" s="32" t="n">
+      <c r="AA5" s="33" t="n">
         <v>-50</v>
       </c>
-      <c r="AB5" s="33" t="n">
+      <c r="AB5" s="34" t="n">
         <v>-50</v>
       </c>
-      <c r="AC5" s="33" t="n">
+      <c r="AC5" s="34" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="36" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="4" t="n">
@@ -5417,10 +5676,10 @@
       <c r="H6" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I6" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="33" t="n">
+      <c r="I6" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="34" t="n">
         <v>1</v>
       </c>
       <c r="K6" s="5" t="n">
@@ -5439,28 +5698,28 @@
         <v>1</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="R6" s="5" t="n">
         <v>1</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="V6" s="33" t="s">
-        <v>175</v>
+        <v>183</v>
+      </c>
+      <c r="V6" s="34" t="s">
+        <v>183</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="X6" s="4" t="n">
         <v>1</v>
@@ -5474,16 +5733,16 @@
       <c r="AA6" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="AB6" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC6" s="33" t="n">
+      <c r="AB6" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="34" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="36" t="s">
-        <v>176</v>
+      <c r="A7" s="37" t="s">
+        <v>184</v>
       </c>
       <c r="B7" s="4" t="n">
         <v>0.75</v>
@@ -5571,8 +5830,8 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="37" t="s">
-        <v>177</v>
+      <c r="A8" s="38" t="s">
+        <v>185</v>
       </c>
       <c r="B8" s="4" t="n">
         <v>1.25</v>
@@ -5595,10 +5854,10 @@
       <c r="H8" s="5" t="n">
         <v>1.25</v>
       </c>
-      <c r="I8" s="33" t="n">
+      <c r="I8" s="34" t="n">
         <v>1.25</v>
       </c>
-      <c r="J8" s="33" t="n">
+      <c r="J8" s="34" t="n">
         <v>1.25</v>
       </c>
       <c r="K8" s="5" t="n">
@@ -5634,7 +5893,7 @@
       <c r="U8" s="5" t="n">
         <v>1.25</v>
       </c>
-      <c r="V8" s="33" t="n">
+      <c r="V8" s="34" t="n">
         <v>1.25</v>
       </c>
       <c r="W8" s="5" t="n">
@@ -5652,16 +5911,16 @@
       <c r="AA8" s="5" t="n">
         <v>1.25</v>
       </c>
-      <c r="AB8" s="33" t="n">
+      <c r="AB8" s="34" t="n">
         <v>1.25</v>
       </c>
-      <c r="AC8" s="33" t="n">
+      <c r="AC8" s="34" t="n">
         <v>1.25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="37" t="s">
-        <v>178</v>
+      <c r="A9" s="38" t="s">
+        <v>186</v>
       </c>
       <c r="B9" s="4" t="n">
         <v>1.5</v>
@@ -5684,10 +5943,10 @@
       <c r="H9" s="5" t="n">
         <v>1.5</v>
       </c>
-      <c r="I9" s="33" t="n">
+      <c r="I9" s="34" t="n">
         <v>1.5</v>
       </c>
-      <c r="J9" s="33" t="n">
+      <c r="J9" s="34" t="n">
         <v>1.5</v>
       </c>
       <c r="K9" s="5" t="n">
@@ -5723,7 +5982,7 @@
       <c r="U9" s="5" t="n">
         <v>1.5</v>
       </c>
-      <c r="V9" s="33" t="n">
+      <c r="V9" s="34" t="n">
         <v>1.5</v>
       </c>
       <c r="W9" s="5" t="n">
@@ -5741,16 +6000,16 @@
       <c r="AA9" s="5" t="n">
         <v>1.5</v>
       </c>
-      <c r="AB9" s="33" t="n">
+      <c r="AB9" s="34" t="n">
         <v>1.5</v>
       </c>
-      <c r="AC9" s="33" t="n">
+      <c r="AC9" s="34" t="n">
         <v>1.5</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="38" t="s">
-        <v>20</v>
+      <c r="A10" s="39" t="s">
+        <v>21</v>
       </c>
       <c r="B10" s="4" t="n">
         <v>0.5</v>
@@ -5773,10 +6032,10 @@
       <c r="H10" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="I10" s="33" t="n">
+      <c r="I10" s="34" t="n">
         <v>0.5</v>
       </c>
-      <c r="J10" s="33" t="n">
+      <c r="J10" s="34" t="n">
         <v>0.5</v>
       </c>
       <c r="K10" s="5" t="n">
@@ -5812,7 +6071,7 @@
       <c r="U10" s="5" t="n">
         <v>0.5</v>
       </c>
-      <c r="V10" s="33" t="n">
+      <c r="V10" s="34" t="n">
         <v>0.5</v>
       </c>
       <c r="W10" s="5" t="n">
@@ -5830,16 +6089,16 @@
       <c r="AA10" s="5" t="n">
         <v>0.5</v>
       </c>
-      <c r="AB10" s="33" t="n">
+      <c r="AB10" s="34" t="n">
         <v>0.5</v>
       </c>
-      <c r="AC10" s="33" t="n">
+      <c r="AC10" s="34" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="38" t="s">
-        <v>179</v>
+      <c r="A11" s="39" t="s">
+        <v>187</v>
       </c>
       <c r="B11" s="4" t="n">
         <v>0.75</v>
@@ -5862,10 +6121,10 @@
       <c r="H11" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I11" s="33" t="n">
+      <c r="I11" s="34" t="n">
         <v>0.75</v>
       </c>
-      <c r="J11" s="33" t="n">
+      <c r="J11" s="34" t="n">
         <v>0.75</v>
       </c>
       <c r="K11" s="5" t="n">
@@ -5901,7 +6160,7 @@
       <c r="U11" s="5" t="n">
         <v>0.75</v>
       </c>
-      <c r="V11" s="33" t="n">
+      <c r="V11" s="34" t="n">
         <v>0.75</v>
       </c>
       <c r="W11" s="5" t="n">
@@ -5919,231 +6178,225 @@
       <c r="AA11" s="5" t="n">
         <v>0.75</v>
       </c>
-      <c r="AB11" s="33" t="n">
+      <c r="AB11" s="34" t="n">
         <v>0.75</v>
       </c>
-      <c r="AC11" s="33" t="n">
+      <c r="AC11" s="34" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="39" t="s">
-        <v>180</v>
-      </c>
-      <c r="B12" s="40" t="n">
+      <c r="A12" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="B12" s="41" t="n">
         <v>1.25</v>
       </c>
-      <c r="C12" s="40" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" s="40" t="n">
+      <c r="C12" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="41" t="n">
         <v>1.25</v>
       </c>
-      <c r="E12" s="40" t="n">
+      <c r="E12" s="41" t="n">
         <v>0.75</v>
       </c>
       <c r="F12" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="G12" s="40" t="n">
+      <c r="G12" s="41" t="n">
         <v>1.25</v>
       </c>
-      <c r="H12" s="40" t="n">
+      <c r="H12" s="41" t="n">
         <v>0.25</v>
       </c>
-      <c r="I12" s="40" t="n">
+      <c r="I12" s="41" t="n">
         <v>1.25</v>
       </c>
-      <c r="J12" s="40" t="n">
+      <c r="J12" s="41" t="n">
         <v>1.25</v>
       </c>
-      <c r="K12" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="L12" s="40" t="n">
+      <c r="K12" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" s="41" t="n">
         <v>0.75</v>
       </c>
-      <c r="M12" s="40" t="n">
+      <c r="M12" s="41" t="n">
         <v>0.75</v>
       </c>
-      <c r="N12" s="40" t="n">
+      <c r="N12" s="41" t="n">
         <v>0.75</v>
       </c>
-      <c r="O12" s="40" t="n">
+      <c r="O12" s="41" t="n">
         <v>0.75</v>
       </c>
-      <c r="P12" s="40" t="n">
+      <c r="P12" s="41" t="n">
         <v>0.5</v>
       </c>
-      <c r="Q12" s="40" t="n">
+      <c r="Q12" s="41" t="n">
         <v>0.5</v>
       </c>
-      <c r="R12" s="40" t="n">
+      <c r="R12" s="41" t="n">
         <v>0.5</v>
       </c>
-      <c r="S12" s="40" t="n">
+      <c r="S12" s="41" t="n">
         <v>0.5</v>
       </c>
-      <c r="T12" s="40" t="n">
+      <c r="T12" s="41" t="n">
         <v>0.5</v>
       </c>
-      <c r="U12" s="40" t="n">
+      <c r="U12" s="41" t="n">
         <v>0.5</v>
       </c>
-      <c r="V12" s="40" t="n">
+      <c r="V12" s="41" t="n">
         <v>0.5</v>
       </c>
-      <c r="W12" s="40" t="n">
+      <c r="W12" s="41" t="n">
         <v>0.5</v>
       </c>
-      <c r="X12" s="40" t="n">
+      <c r="X12" s="41" t="n">
         <v>1.25</v>
       </c>
-      <c r="Y12" s="40" t="n">
+      <c r="Y12" s="41" t="n">
         <v>1.25</v>
       </c>
-      <c r="Z12" s="40" t="n">
+      <c r="Z12" s="41" t="n">
         <v>1.25</v>
       </c>
-      <c r="AA12" s="40" t="n">
+      <c r="AA12" s="41" t="n">
         <v>1.25</v>
       </c>
-      <c r="AB12" s="40" t="n">
+      <c r="AB12" s="41" t="n">
         <v>1.25</v>
       </c>
-      <c r="AC12" s="40" t="n">
+      <c r="AC12" s="41" t="n">
         <v>1.25</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="B13" s="40" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="40" t="n">
+      <c r="A13" s="40" t="s">
+        <v>189</v>
+      </c>
+      <c r="B13" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="41" t="n">
         <v>0.75</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="G13" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="L13" s="40" t="n">
+      <c r="G13" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" s="41" t="n">
         <v>0</v>
       </c>
-      <c r="M13" s="33" t="n">
+      <c r="M13" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="N13" s="33" t="n">
+      <c r="N13" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="O13" s="33" t="n">
+      <c r="O13" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="P13" s="40" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="S13" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="T13" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="U13" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="V13" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="W13" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="X13" s="40" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y13" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z13" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA13" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB13" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC13" s="33" t="n">
+      <c r="P13" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="S13" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="U13" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="W13" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="X13" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="34" t="n">
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="B14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="G14" s="0"/>
-      <c r="H14" s="0"/>
-      <c r="I14" s="42" t="s">
-        <v>183</v>
-      </c>
-      <c r="K14" s="42" t="s">
-        <v>183</v>
-      </c>
-      <c r="L14" s="40"/>
-      <c r="N14" s="33" t="s">
-        <v>184</v>
-      </c>
-      <c r="O14" s="41"/>
-      <c r="Q14" s="42"/>
-      <c r="S14" s="0"/>
-      <c r="T14" s="42" t="s">
-        <v>185</v>
-      </c>
-      <c r="U14" s="0"/>
-      <c r="V14" s="42" t="s">
-        <v>183</v>
-      </c>
-      <c r="W14" s="42"/>
-      <c r="X14" s="42" t="s">
-        <v>183</v>
-      </c>
-      <c r="Y14" s="42"/>
-      <c r="AB14" s="42" t="s">
-        <v>183</v>
-      </c>
-      <c r="AC14" s="42"/>
-      <c r="AMJ14" s="0"/>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" s="34" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="B14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="I14" s="43" t="s">
+        <v>191</v>
+      </c>
+      <c r="K14" s="43" t="s">
+        <v>191</v>
+      </c>
+      <c r="L14" s="41"/>
+      <c r="N14" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="O14" s="42"/>
+      <c r="Q14" s="43"/>
+      <c r="T14" s="43" t="s">
+        <v>193</v>
+      </c>
+      <c r="V14" s="43" t="s">
+        <v>191</v>
+      </c>
+      <c r="W14" s="43"/>
+      <c r="X14" s="43" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y14" s="43"/>
+      <c r="AB14" s="43" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC14" s="43"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="P6:AC13 A6:N13">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">

--- a/months/may23/may23.xlsx
+++ b/months/may23/may23.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="vedomost" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="195">
   <si>
     <t xml:space="preserve">DATE</t>
   </si>
@@ -577,7 +577,10 @@
     <t xml:space="preserve">{"1": 1, "2": 1.25, "3": 1.5}</t>
   </si>
   <si>
-    <t xml:space="preserve">duty_8</t>
+    <t xml:space="preserve">duty8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLEEP</t>
   </si>
   <si>
     <t xml:space="preserve">WEAK1</t>
@@ -785,7 +788,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -835,10 +838,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1124,15 +1123,15 @@
   </sheetPr>
   <dimension ref="A1:AK32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="Z12" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="Z1" activeCellId="0" sqref="Z1"/>
       <selection pane="bottomLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="AA34" activeCellId="0" sqref="AA34"/>
+      <selection pane="bottomRight" activeCell="B39" activeCellId="0" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="4.43"/>
@@ -1164,7 +1163,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="4" width="7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="31" style="5" width="7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="11.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="5.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="5.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="7.43"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="36" min="36" style="4" width="8.57"/>
   </cols>
@@ -3677,7 +3676,7 @@
       <c r="AG29" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="AH29" s="13" t="s">
+      <c r="AH29" s="10" t="s">
         <v>12</v>
       </c>
       <c r="AI29" s="0" t="n">
@@ -3856,7 +3855,7 @@
       <c r="AG31" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="AH31" s="13" t="s">
+      <c r="AH31" s="10" t="s">
         <v>12</v>
       </c>
       <c r="AI31" s="0" t="n">
@@ -3943,7 +3942,7 @@
       <c r="AG32" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="AH32" s="13" t="s">
+      <c r="AH32" s="10" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4108,891 +4107,891 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="14" width="11.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="15" width="4.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="15" width="5.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="15" width="13.28"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="5" style="15" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="15" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="15" width="39.85"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="11" style="15" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="13" width="11.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="14" width="4.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="14" width="5.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="14" width="13.28"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="5" style="14" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="14" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="14" width="39.85"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="11" style="14" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="16" t="str">
+      <c r="A1" s="15" t="str">
         <f aca="false">vedomost!A1</f>
         <v>DATE</v>
       </c>
-      <c r="B1" s="17" t="str">
+      <c r="B1" s="16" t="str">
         <f aca="false">vedomost!B1</f>
         <v>DAY</v>
       </c>
-      <c r="C1" s="18" t="str">
+      <c r="C1" s="17" t="str">
         <f aca="false">vedomost!F1</f>
         <v>DUTY</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="18" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="16" t="n">
+      <c r="A2" s="15" t="n">
         <f aca="false">vedomost!A2</f>
         <v>45047</v>
       </c>
-      <c r="B2" s="21" t="n">
+      <c r="B2" s="20" t="n">
         <f aca="false">vedomost!B2</f>
         <v>1</v>
       </c>
-      <c r="C2" s="22" t="str">
+      <c r="C2" s="21" t="str">
         <f aca="false">IF(vedomost!F2=0,"",vedomost!F2)</f>
         <v/>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="24" t="s">
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="K2" s="22"/>
-      <c r="L2" s="23"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="22"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="25" t="n">
+      <c r="A3" s="24" t="n">
         <f aca="false">vedomost!A3</f>
         <v>45048</v>
       </c>
-      <c r="B3" s="21" t="n">
+      <c r="B3" s="20" t="n">
         <f aca="false">vedomost!B3</f>
         <v>2</v>
       </c>
-      <c r="C3" s="22" t="str">
+      <c r="C3" s="21" t="str">
         <f aca="false">IF(vedomost!F3=0,"",vedomost!F3)</f>
         <v/>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="24" t="s">
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="K3" s="22"/>
-      <c r="L3" s="23"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="22"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="25" t="n">
+      <c r="A4" s="24" t="n">
         <f aca="false">vedomost!A4</f>
         <v>45049</v>
       </c>
-      <c r="B4" s="21" t="n">
+      <c r="B4" s="20" t="n">
         <f aca="false">vedomost!B4</f>
         <v>3</v>
       </c>
-      <c r="C4" s="22" t="str">
+      <c r="C4" s="21" t="str">
         <f aca="false">IF(vedomost!F4=0,"",vedomost!F4)</f>
         <v>24</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21" t="s">
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="24" t="s">
+      <c r="H4" s="20"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="K4" s="22"/>
-      <c r="L4" s="23"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="22"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="25" t="n">
+      <c r="A5" s="24" t="n">
         <f aca="false">vedomost!A5</f>
         <v>45050</v>
       </c>
-      <c r="B5" s="21" t="n">
+      <c r="B5" s="20" t="n">
         <f aca="false">vedomost!B5</f>
         <v>4</v>
       </c>
-      <c r="C5" s="22" t="str">
+      <c r="C5" s="21" t="str">
         <f aca="false">IF(vedomost!F5=0,"",vedomost!F5)</f>
         <v/>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21" t="s">
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21" t="s">
+      <c r="G5" s="20"/>
+      <c r="H5" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="I5" s="23"/>
-      <c r="J5" s="24" t="s">
+      <c r="I5" s="22"/>
+      <c r="J5" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="K5" s="22"/>
-      <c r="L5" s="23"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="22"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="25" t="n">
+      <c r="A6" s="24" t="n">
         <f aca="false">vedomost!A6</f>
         <v>45051</v>
       </c>
-      <c r="B6" s="21" t="n">
+      <c r="B6" s="20" t="n">
         <f aca="false">vedomost!B6</f>
         <v>5</v>
       </c>
-      <c r="C6" s="22" t="str">
+      <c r="C6" s="21" t="str">
         <f aca="false">IF(vedomost!F6=0,"",vedomost!F6)</f>
         <v>24</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21" t="s">
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="H6" s="21"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="24" t="s">
+      <c r="H6" s="20"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="K6" s="22"/>
-      <c r="L6" s="23"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="22"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="16" t="n">
+      <c r="A7" s="15" t="n">
         <f aca="false">vedomost!A7</f>
         <v>45052</v>
       </c>
-      <c r="B7" s="21" t="n">
+      <c r="B7" s="20" t="n">
         <f aca="false">vedomost!B7</f>
         <v>6</v>
       </c>
-      <c r="C7" s="22" t="str">
+      <c r="C7" s="21" t="str">
         <f aca="false">IF(vedomost!F7=0,"",vedomost!F7)</f>
         <v/>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="24" t="s">
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="K7" s="22"/>
-      <c r="L7" s="23"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="22"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="16" t="n">
+      <c r="A8" s="15" t="n">
         <f aca="false">vedomost!A8</f>
         <v>45053</v>
       </c>
-      <c r="B8" s="21" t="n">
+      <c r="B8" s="20" t="n">
         <f aca="false">vedomost!B8</f>
         <v>7</v>
       </c>
-      <c r="C8" s="22" t="str">
+      <c r="C8" s="21" t="str">
         <f aca="false">IF(vedomost!F8=0,"",vedomost!F8)</f>
         <v>24</v>
       </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="24" t="s">
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="K8" s="22"/>
-      <c r="L8" s="23"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="22"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="16" t="n">
+      <c r="A9" s="15" t="n">
         <f aca="false">vedomost!A9</f>
         <v>45054</v>
       </c>
-      <c r="B9" s="21" t="n">
+      <c r="B9" s="20" t="n">
         <f aca="false">vedomost!B9</f>
         <v>1</v>
       </c>
-      <c r="C9" s="22" t="str">
+      <c r="C9" s="21" t="str">
         <f aca="false">IF(vedomost!F9=0,"",vedomost!F9)</f>
         <v/>
       </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="24" t="s">
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="K9" s="22"/>
-      <c r="L9" s="23"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="22"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="16" t="n">
+      <c r="A10" s="15" t="n">
         <f aca="false">vedomost!A10</f>
         <v>45055</v>
       </c>
-      <c r="B10" s="21" t="n">
+      <c r="B10" s="20" t="n">
         <f aca="false">vedomost!B10</f>
         <v>2</v>
       </c>
-      <c r="C10" s="22" t="str">
+      <c r="C10" s="21" t="str">
         <f aca="false">IF(vedomost!F10=0,"",vedomost!F10)</f>
         <v>24</v>
       </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="24" t="s">
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="K10" s="22"/>
-      <c r="L10" s="23"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="22"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="25" t="n">
+      <c r="A11" s="24" t="n">
         <f aca="false">vedomost!A11</f>
         <v>45056</v>
       </c>
-      <c r="B11" s="21" t="n">
+      <c r="B11" s="20" t="n">
         <f aca="false">vedomost!B11</f>
         <v>3</v>
       </c>
-      <c r="C11" s="22" t="str">
+      <c r="C11" s="21" t="str">
         <f aca="false">IF(vedomost!F11=0,"",vedomost!F11)</f>
         <v/>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="23" t="s">
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="J11" s="24" t="s">
+      <c r="J11" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="K11" s="22"/>
-      <c r="L11" s="23"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="22"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="25" t="n">
+      <c r="A12" s="24" t="n">
         <f aca="false">vedomost!A12</f>
         <v>45057</v>
       </c>
-      <c r="B12" s="21" t="n">
+      <c r="B12" s="20" t="n">
         <f aca="false">vedomost!B12</f>
         <v>4</v>
       </c>
-      <c r="C12" s="22" t="str">
+      <c r="C12" s="21" t="str">
         <f aca="false">IF(vedomost!F12=0,"",vedomost!F12)</f>
         <v>8</v>
       </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="23"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="22"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="25" t="n">
+      <c r="A13" s="24" t="n">
         <f aca="false">vedomost!A13</f>
         <v>45058</v>
       </c>
-      <c r="B13" s="21" t="n">
+      <c r="B13" s="20" t="n">
         <f aca="false">vedomost!B13</f>
         <v>5</v>
       </c>
-      <c r="C13" s="22" t="str">
+      <c r="C13" s="21" t="str">
         <f aca="false">IF(vedomost!F13=0,"",vedomost!F13)</f>
         <v/>
       </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21" t="s">
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21" t="s">
+      <c r="G13" s="20"/>
+      <c r="H13" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="I13" s="23"/>
-      <c r="J13" s="24" t="s">
+      <c r="I13" s="22"/>
+      <c r="J13" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="K13" s="22"/>
-      <c r="L13" s="23"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="22"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="16" t="n">
+      <c r="A14" s="15" t="n">
         <f aca="false">vedomost!A14</f>
         <v>45059</v>
       </c>
-      <c r="B14" s="21" t="n">
+      <c r="B14" s="20" t="n">
         <f aca="false">vedomost!B14</f>
         <v>6</v>
       </c>
-      <c r="C14" s="22" t="str">
+      <c r="C14" s="21" t="str">
         <f aca="false">IF(vedomost!F14=0,"",vedomost!F14)</f>
         <v>24</v>
       </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21" t="s">
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="H14" s="21"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="23"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="22"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="16" t="n">
+      <c r="A15" s="15" t="n">
         <f aca="false">vedomost!A15</f>
         <v>45060</v>
       </c>
-      <c r="B15" s="21" t="n">
+      <c r="B15" s="20" t="n">
         <f aca="false">vedomost!B15</f>
         <v>7</v>
       </c>
-      <c r="C15" s="22" t="str">
+      <c r="C15" s="21" t="str">
         <f aca="false">IF(vedomost!F15=0,"",vedomost!F15)</f>
         <v/>
       </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="20" t="s">
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="K15" s="18"/>
-      <c r="L15" s="19"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="18"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="25" t="n">
+      <c r="A16" s="24" t="n">
         <f aca="false">vedomost!A16</f>
         <v>45061</v>
       </c>
-      <c r="B16" s="21" t="n">
+      <c r="B16" s="20" t="n">
         <f aca="false">vedomost!B16</f>
         <v>1</v>
       </c>
-      <c r="C16" s="22" t="str">
+      <c r="C16" s="21" t="str">
         <f aca="false">IF(vedomost!F16=0,"",vedomost!F16)</f>
         <v>8</v>
       </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21" t="s">
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="24" t="s">
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="K16" s="22"/>
-      <c r="L16" s="23"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="22"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="25" t="n">
+      <c r="A17" s="24" t="n">
         <f aca="false">vedomost!A17</f>
         <v>45062</v>
       </c>
-      <c r="B17" s="21" t="n">
+      <c r="B17" s="20" t="n">
         <f aca="false">vedomost!B17</f>
         <v>2</v>
       </c>
-      <c r="C17" s="22" t="str">
+      <c r="C17" s="21" t="str">
         <f aca="false">IF(vedomost!F17=0,"",vedomost!F17)</f>
         <v>24</v>
       </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21" t="s">
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="H17" s="21"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="24" t="s">
+      <c r="H17" s="20"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="K17" s="22"/>
-      <c r="L17" s="23"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="22"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="25" t="n">
+      <c r="A18" s="24" t="n">
         <f aca="false">vedomost!A18</f>
         <v>45063</v>
       </c>
-      <c r="B18" s="21" t="n">
+      <c r="B18" s="20" t="n">
         <f aca="false">vedomost!B18</f>
         <v>3</v>
       </c>
-      <c r="C18" s="22" t="str">
+      <c r="C18" s="21" t="str">
         <f aca="false">IF(vedomost!F18=0,"",vedomost!F18)</f>
         <v/>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="E18" s="21" t="s">
+      <c r="E18" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="F18" s="21" t="s">
+      <c r="F18" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="24" t="s">
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="K18" s="22"/>
-      <c r="L18" s="23"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="22"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="25" t="n">
+      <c r="A19" s="24" t="n">
         <f aca="false">vedomost!A19</f>
         <v>45064</v>
       </c>
-      <c r="B19" s="21" t="n">
+      <c r="B19" s="20" t="n">
         <f aca="false">vedomost!B19</f>
         <v>4</v>
       </c>
-      <c r="C19" s="22" t="str">
+      <c r="C19" s="21" t="str">
         <f aca="false">IF(vedomost!F19=0,"",vedomost!F19)</f>
         <v/>
       </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21" t="s">
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="G19" s="21" t="s">
+      <c r="G19" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="H19" s="21" t="s">
+      <c r="H19" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="I19" s="23"/>
-      <c r="J19" s="24" t="s">
+      <c r="I19" s="22"/>
+      <c r="J19" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="K19" s="22"/>
-      <c r="L19" s="23"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="22"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="25" t="n">
+      <c r="A20" s="24" t="n">
         <f aca="false">vedomost!A20</f>
         <v>45065</v>
       </c>
-      <c r="B20" s="21" t="n">
+      <c r="B20" s="20" t="n">
         <f aca="false">vedomost!B20</f>
         <v>5</v>
       </c>
-      <c r="C20" s="22" t="str">
+      <c r="C20" s="21" t="str">
         <f aca="false">IF(vedomost!F20=0,"",vedomost!F20)</f>
         <v>24</v>
       </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21" t="s">
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="H20" s="21"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="24" t="s">
+      <c r="H20" s="20"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="K20" s="22"/>
-      <c r="L20" s="23"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="22"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="16" t="n">
+      <c r="A21" s="15" t="n">
         <f aca="false">vedomost!A21</f>
         <v>45066</v>
       </c>
-      <c r="B21" s="21" t="n">
+      <c r="B21" s="20" t="n">
         <f aca="false">vedomost!B21</f>
         <v>6</v>
       </c>
-      <c r="C21" s="22" t="str">
+      <c r="C21" s="21" t="str">
         <f aca="false">IF(vedomost!F21=0,"",vedomost!F21)</f>
         <v/>
       </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21" t="s">
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="24" t="s">
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="K21" s="22"/>
-      <c r="L21" s="23"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="22"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="16" t="n">
+      <c r="A22" s="15" t="n">
         <f aca="false">vedomost!A22</f>
         <v>45067</v>
       </c>
-      <c r="B22" s="21" t="n">
+      <c r="B22" s="20" t="n">
         <f aca="false">vedomost!B22</f>
         <v>7</v>
       </c>
-      <c r="C22" s="22" t="str">
+      <c r="C22" s="21" t="str">
         <f aca="false">IF(vedomost!F22=0,"",vedomost!F22)</f>
         <v>24</v>
       </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21" t="s">
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="H22" s="21"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="24" t="s">
+      <c r="H22" s="20"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="K22" s="22"/>
-      <c r="L22" s="23"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="22"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="25" t="n">
+      <c r="A23" s="24" t="n">
         <f aca="false">vedomost!A23</f>
         <v>45068</v>
       </c>
-      <c r="B23" s="21" t="n">
+      <c r="B23" s="20" t="n">
         <f aca="false">vedomost!B23</f>
         <v>1</v>
       </c>
-      <c r="C23" s="22" t="str">
+      <c r="C23" s="21" t="str">
         <f aca="false">IF(vedomost!F23=0,"",vedomost!F23)</f>
         <v/>
       </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21" t="s">
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="23"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="22"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="25" t="n">
+      <c r="A24" s="24" t="n">
         <f aca="false">vedomost!A24</f>
         <v>45069</v>
       </c>
-      <c r="B24" s="21" t="n">
+      <c r="B24" s="20" t="n">
         <f aca="false">vedomost!B24</f>
         <v>2</v>
       </c>
-      <c r="C24" s="22" t="str">
+      <c r="C24" s="21" t="str">
         <f aca="false">IF(vedomost!F24=0,"",vedomost!F24)</f>
         <v/>
       </c>
-      <c r="D24" s="21" t="s">
+      <c r="D24" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="E24" s="21" t="s">
+      <c r="E24" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21" t="s">
+      <c r="F24" s="20"/>
+      <c r="G24" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="H24" s="21"/>
-      <c r="I24" s="23" t="s">
+      <c r="H24" s="20"/>
+      <c r="I24" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="J24" s="24"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="22"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="25" t="n">
+      <c r="A25" s="24" t="n">
         <f aca="false">vedomost!A25</f>
         <v>45070</v>
       </c>
-      <c r="B25" s="21" t="n">
+      <c r="B25" s="20" t="n">
         <f aca="false">vedomost!B25</f>
         <v>3</v>
       </c>
-      <c r="C25" s="22" t="str">
+      <c r="C25" s="21" t="str">
         <f aca="false">IF(vedomost!F25=0,"",vedomost!F25)</f>
         <v>24</v>
       </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="23"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="22"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="25" t="n">
+      <c r="A26" s="24" t="n">
         <f aca="false">vedomost!A26</f>
         <v>45071</v>
       </c>
-      <c r="B26" s="21" t="n">
+      <c r="B26" s="20" t="n">
         <f aca="false">vedomost!B26</f>
         <v>4</v>
       </c>
-      <c r="C26" s="22" t="str">
+      <c r="C26" s="21" t="str">
         <f aca="false">IF(vedomost!F26=0,"",vedomost!F26)</f>
         <v/>
       </c>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21" t="s">
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21" t="s">
+      <c r="G26" s="20"/>
+      <c r="H26" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="I26" s="23"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="23"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="22"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="25" t="n">
+      <c r="A27" s="24" t="n">
         <f aca="false">vedomost!A27</f>
         <v>45072</v>
       </c>
-      <c r="B27" s="21" t="n">
+      <c r="B27" s="20" t="n">
         <f aca="false">vedomost!B27</f>
         <v>5</v>
       </c>
-      <c r="C27" s="22" t="str">
+      <c r="C27" s="21" t="str">
         <f aca="false">IF(vedomost!F27=0,"",vedomost!F27)</f>
         <v/>
       </c>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21" t="s">
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="G27" s="21" t="s">
+      <c r="G27" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="H27" s="21"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="23"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="22"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="16" t="n">
+      <c r="A28" s="15" t="n">
         <f aca="false">vedomost!A28</f>
         <v>45073</v>
       </c>
-      <c r="B28" s="21" t="n">
+      <c r="B28" s="20" t="n">
         <f aca="false">vedomost!B28</f>
         <v>6</v>
       </c>
-      <c r="C28" s="22" t="str">
+      <c r="C28" s="21" t="str">
         <f aca="false">IF(vedomost!F28=0,"",vedomost!F28)</f>
         <v>24</v>
       </c>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21" t="s">
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="H28" s="21"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="23"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="22"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="16" t="n">
+      <c r="A29" s="15" t="n">
         <f aca="false">vedomost!A29</f>
         <v>45074</v>
       </c>
-      <c r="B29" s="21" t="n">
+      <c r="B29" s="20" t="n">
         <f aca="false">vedomost!B29</f>
         <v>7</v>
       </c>
-      <c r="C29" s="22" t="str">
+      <c r="C29" s="21" t="str">
         <f aca="false">IF(vedomost!F29=0,"",vedomost!F29)</f>
         <v/>
       </c>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21" t="s">
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="23"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="22"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="25" t="n">
+      <c r="A30" s="24" t="n">
         <f aca="false">vedomost!A30</f>
         <v>45075</v>
       </c>
-      <c r="B30" s="21" t="n">
+      <c r="B30" s="20" t="n">
         <f aca="false">vedomost!B30</f>
         <v>1</v>
       </c>
-      <c r="C30" s="22" t="str">
+      <c r="C30" s="21" t="str">
         <f aca="false">IF(vedomost!F30=0,"",vedomost!F30)</f>
         <v/>
       </c>
-      <c r="D30" s="21" t="s">
+      <c r="D30" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="E30" s="21" t="s">
+      <c r="E30" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="F30" s="21" t="s">
+      <c r="F30" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="G30" s="21" t="s">
+      <c r="G30" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="H30" s="21"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="23"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="22"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="25" t="n">
+      <c r="A31" s="24" t="n">
         <f aca="false">vedomost!A31</f>
         <v>45076</v>
       </c>
-      <c r="B31" s="21" t="n">
+      <c r="B31" s="20" t="n">
         <f aca="false">vedomost!B31</f>
         <v>2</v>
       </c>
-      <c r="C31" s="22" t="str">
+      <c r="C31" s="21" t="str">
         <f aca="false">IF(vedomost!F31=0,"",vedomost!F31)</f>
         <v>24</v>
       </c>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21" t="s">
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="H31" s="21"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="23"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="22"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="25" t="n">
+      <c r="A32" s="24" t="n">
         <f aca="false">vedomost!A32</f>
         <v>45077</v>
       </c>
-      <c r="B32" s="21" t="n">
+      <c r="B32" s="20" t="n">
         <f aca="false">vedomost!B32</f>
         <v>3</v>
       </c>
-      <c r="C32" s="22" t="str">
+      <c r="C32" s="21" t="str">
         <f aca="false">IF(vedomost!F32=0,"",vedomost!F32)</f>
         <v/>
       </c>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21" t="s">
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21" t="s">
+      <c r="G32" s="20"/>
+      <c r="H32" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="I32" s="23"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="23"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="22"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -5022,7 +5021,7 @@
       <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="39.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="12.14"/>
@@ -5031,70 +5030,70 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="27" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="27" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="28" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="28" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="28" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="28" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="28" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="29" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="29" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="28" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="27"/>
+      <c r="B12" s="26"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
@@ -5102,7 +5101,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="25" t="s">
         <v>120</v>
       </c>
     </row>
@@ -5179,18 +5178,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AC14"/>
+  <dimension ref="A1:AC45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Y1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z10" activeCellId="0" sqref="Z10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P7" activeCellId="0" sqref="P7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="39.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="39.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="39.28"/>
@@ -5217,7 +5216,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>129</v>
       </c>
       <c r="B1" s="9" t="s">
@@ -5306,353 +5305,353 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="31" t="s">
         <v>158</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="32" t="s">
         <v>161</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="I2" s="34" t="n">
+      <c r="I2" s="33" t="n">
         <v>50</v>
       </c>
-      <c r="J2" s="34" t="n">
+      <c r="J2" s="33" t="n">
         <v>50</v>
       </c>
-      <c r="K2" s="33" t="n">
+      <c r="K2" s="32" t="n">
         <v>150</v>
       </c>
       <c r="L2" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="M2" s="33" t="s">
+      <c r="M2" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="N2" s="33" t="n">
+      <c r="N2" s="32" t="n">
         <v>50</v>
       </c>
-      <c r="O2" s="33" t="n">
+      <c r="O2" s="32" t="n">
         <v>100</v>
       </c>
       <c r="P2" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="Q2" s="33" t="s">
+      <c r="Q2" s="32" t="s">
         <v>167</v>
       </c>
-      <c r="R2" s="33" t="s">
+      <c r="R2" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="S2" s="33" t="s">
+      <c r="S2" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="T2" s="33" t="n">
+      <c r="T2" s="32" t="n">
         <v>50</v>
       </c>
-      <c r="U2" s="33" t="s">
+      <c r="U2" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="V2" s="34" t="n">
+      <c r="V2" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="W2" s="33" t="s">
+      <c r="W2" s="32" t="s">
         <v>167</v>
       </c>
       <c r="X2" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="Y2" s="33" t="s">
+      <c r="Y2" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="Z2" s="33" t="s">
+      <c r="Z2" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="AA2" s="33" t="s">
+      <c r="AA2" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="AB2" s="34" t="n">
+      <c r="AB2" s="33" t="n">
         <v>50</v>
       </c>
-      <c r="AC2" s="34" t="s">
+      <c r="AC2" s="33" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="31" t="s">
         <v>172</v>
       </c>
       <c r="B3" s="12" t="n">
         <v>-25</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33" t="n">
+      <c r="C3" s="32"/>
+      <c r="D3" s="32" t="n">
         <v>-50</v>
       </c>
       <c r="E3" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="F3" s="33" t="n">
+      <c r="F3" s="32" t="n">
         <v>0</v>
       </c>
-      <c r="G3" s="33" t="n">
+      <c r="G3" s="32" t="n">
         <v>50</v>
       </c>
-      <c r="H3" s="33" t="n">
+      <c r="H3" s="32" t="n">
         <v>0</v>
       </c>
-      <c r="I3" s="34" t="n">
+      <c r="I3" s="33" t="n">
         <v>-50</v>
       </c>
-      <c r="J3" s="34" t="n">
+      <c r="J3" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="K3" s="33" t="n">
+      <c r="K3" s="32" t="n">
         <v>-25</v>
       </c>
       <c r="L3" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33" t="n">
+      <c r="M3" s="32"/>
+      <c r="N3" s="32" t="n">
         <v>-50</v>
       </c>
-      <c r="O3" s="33" t="n">
+      <c r="O3" s="32" t="n">
         <v>0</v>
       </c>
       <c r="P3" s="12" t="n">
         <v>-50</v>
       </c>
-      <c r="Q3" s="33" t="n">
+      <c r="Q3" s="32" t="n">
         <v>0</v>
       </c>
-      <c r="R3" s="33" t="n">
+      <c r="R3" s="32" t="n">
         <v>0</v>
       </c>
-      <c r="S3" s="33" t="n">
+      <c r="S3" s="32" t="n">
         <v>0</v>
       </c>
-      <c r="T3" s="33" t="n">
+      <c r="T3" s="32" t="n">
         <v>-50</v>
       </c>
-      <c r="U3" s="34" t="n">
+      <c r="U3" s="33" t="n">
         <v>-50</v>
       </c>
-      <c r="V3" s="34" t="n">
+      <c r="V3" s="33" t="n">
         <v>-50</v>
       </c>
-      <c r="W3" s="33" t="n">
+      <c r="W3" s="32" t="n">
         <v>0</v>
       </c>
       <c r="X3" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="Y3" s="33" t="n">
+      <c r="Y3" s="32" t="n">
         <v>0</v>
       </c>
-      <c r="Z3" s="33" t="n">
+      <c r="Z3" s="32" t="n">
         <v>0</v>
       </c>
-      <c r="AA3" s="33" t="n">
+      <c r="AA3" s="32" t="n">
         <v>-50</v>
       </c>
-      <c r="AB3" s="34" t="n">
+      <c r="AB3" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="AC3" s="34" t="n">
+      <c r="AC3" s="33" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="34" t="s">
         <v>173</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="32" t="s">
         <v>167</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="32" t="s">
         <v>174</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="32" t="s">
         <v>177</v>
       </c>
-      <c r="H4" s="33" t="s">
+      <c r="H4" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="I4" s="34" t="n">
+      <c r="I4" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="J4" s="34" t="n">
+      <c r="J4" s="33" t="n">
         <v>50</v>
       </c>
-      <c r="K4" s="33" t="n">
+      <c r="K4" s="32" t="n">
         <v>50</v>
       </c>
       <c r="L4" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="M4" s="33" t="s">
+      <c r="M4" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="N4" s="33" t="n">
+      <c r="N4" s="32" t="n">
         <v>0</v>
       </c>
-      <c r="O4" s="33" t="n">
+      <c r="O4" s="32" t="n">
         <v>50</v>
       </c>
       <c r="P4" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="Q4" s="33" t="s">
+      <c r="Q4" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="R4" s="33" t="s">
+      <c r="R4" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="S4" s="33" t="s">
+      <c r="S4" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="T4" s="33" t="n">
+      <c r="T4" s="32" t="n">
         <v>100</v>
       </c>
-      <c r="U4" s="33" t="s">
+      <c r="U4" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="V4" s="34" t="n">
+      <c r="V4" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="W4" s="33" t="s">
+      <c r="W4" s="32" t="s">
         <v>160</v>
       </c>
       <c r="X4" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="Y4" s="33" t="s">
+      <c r="Y4" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="Z4" s="33" t="s">
+      <c r="Z4" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="AA4" s="33" t="s">
+      <c r="AA4" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="AB4" s="34" t="n">
+      <c r="AB4" s="33" t="n">
         <v>25</v>
       </c>
-      <c r="AC4" s="34" t="s">
+      <c r="AC4" s="33" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="34" t="s">
         <v>182</v>
       </c>
       <c r="B5" s="12" t="n">
         <v>-25</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33" t="n">
+      <c r="C5" s="32"/>
+      <c r="D5" s="32" t="n">
         <v>-50</v>
       </c>
       <c r="E5" s="12" t="n">
         <v>-50</v>
       </c>
-      <c r="F5" s="33" t="n">
+      <c r="F5" s="32" t="n">
         <v>0</v>
       </c>
-      <c r="G5" s="33" t="n">
+      <c r="G5" s="32" t="n">
         <v>-50</v>
       </c>
-      <c r="H5" s="33" t="n">
+      <c r="H5" s="32" t="n">
         <v>0</v>
       </c>
-      <c r="I5" s="34" t="n">
+      <c r="I5" s="33" t="n">
         <v>-50</v>
       </c>
-      <c r="J5" s="34" t="n">
+      <c r="J5" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="K5" s="33" t="n">
+      <c r="K5" s="32" t="n">
         <v>-50</v>
       </c>
       <c r="L5" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33" t="n">
+      <c r="M5" s="32"/>
+      <c r="N5" s="32" t="n">
         <v>-50</v>
       </c>
-      <c r="O5" s="33" t="n">
+      <c r="O5" s="32" t="n">
         <v>-50</v>
       </c>
       <c r="P5" s="12" t="n">
         <v>-50</v>
       </c>
-      <c r="Q5" s="33" t="n">
+      <c r="Q5" s="32" t="n">
         <v>-50</v>
       </c>
-      <c r="R5" s="33"/>
-      <c r="S5" s="33" t="n">
+      <c r="R5" s="32"/>
+      <c r="S5" s="32" t="n">
         <v>0</v>
       </c>
-      <c r="T5" s="33" t="n">
+      <c r="T5" s="32" t="n">
         <v>-25</v>
       </c>
-      <c r="U5" s="33" t="n">
+      <c r="U5" s="32" t="n">
         <v>-50</v>
       </c>
-      <c r="V5" s="34" t="n">
+      <c r="V5" s="33" t="n">
         <v>-50</v>
       </c>
-      <c r="W5" s="33" t="n">
+      <c r="W5" s="32" t="n">
         <v>0</v>
       </c>
       <c r="X5" s="12" t="n">
         <v>-50</v>
       </c>
-      <c r="Y5" s="33" t="n">
+      <c r="Y5" s="32" t="n">
         <v>0</v>
       </c>
-      <c r="Z5" s="33" t="n">
+      <c r="Z5" s="32" t="n">
         <v>0</v>
       </c>
-      <c r="AA5" s="33" t="n">
+      <c r="AA5" s="32" t="n">
         <v>-50</v>
       </c>
-      <c r="AB5" s="34" t="n">
+      <c r="AB5" s="33" t="n">
         <v>-50</v>
       </c>
-      <c r="AC5" s="34" t="n">
+      <c r="AC5" s="33" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="35" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="4" t="n">
@@ -5676,10 +5675,10 @@
       <c r="H6" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I6" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="34" t="n">
+      <c r="I6" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="33" t="n">
         <v>1</v>
       </c>
       <c r="K6" s="5" t="n">
@@ -5715,7 +5714,7 @@
       <c r="U6" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="V6" s="34" t="s">
+      <c r="V6" s="33" t="s">
         <v>183</v>
       </c>
       <c r="W6" s="5" t="s">
@@ -5733,15 +5732,15 @@
       <c r="AA6" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="AB6" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC6" s="34" t="n">
+      <c r="AB6" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="33" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="36" t="s">
         <v>184</v>
       </c>
       <c r="B7" s="4" t="n">
@@ -5787,28 +5786,28 @@
         <v>0.75</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="X7" s="4" t="n">
         <v>0.75</v>
@@ -5829,581 +5828,683 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="38" t="s">
+    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="36" t="s">
         <v>185</v>
       </c>
       <c r="B8" s="4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H8" s="4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I8" s="4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="J8" s="4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="K8" s="4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="L8" s="4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M8" s="4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N8" s="4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O8" s="4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P8" s="4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Q8" s="4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="R8" s="4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" s="4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="U8" s="4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="V8" s="4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W8" s="4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X8" s="4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Y8" s="4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Z8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AB8" s="4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AC8" s="4" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="B9" s="4" t="n">
         <v>1.25</v>
       </c>
-      <c r="C8" s="5" t="n">
+      <c r="C9" s="5" t="n">
         <v>1.25</v>
       </c>
-      <c r="D8" s="5" t="n">
+      <c r="D9" s="5" t="n">
         <v>1.25</v>
       </c>
-      <c r="E8" s="4" t="n">
+      <c r="E9" s="4" t="n">
         <v>1.25</v>
       </c>
-      <c r="F8" s="5" t="n">
+      <c r="F9" s="5" t="n">
         <v>1.15</v>
       </c>
-      <c r="G8" s="5" t="n">
+      <c r="G9" s="5" t="n">
         <v>1.25</v>
       </c>
-      <c r="H8" s="5" t="n">
+      <c r="H9" s="5" t="n">
         <v>1.25</v>
       </c>
-      <c r="I8" s="34" t="n">
+      <c r="I9" s="33" t="n">
         <v>1.25</v>
       </c>
-      <c r="J8" s="34" t="n">
+      <c r="J9" s="33" t="n">
         <v>1.25</v>
       </c>
-      <c r="K8" s="5" t="n">
+      <c r="K9" s="5" t="n">
         <v>1.25</v>
       </c>
-      <c r="L8" s="4" t="n">
+      <c r="L9" s="4" t="n">
         <v>1.25</v>
       </c>
-      <c r="M8" s="5" t="n">
+      <c r="M9" s="5" t="n">
         <v>1.25</v>
       </c>
-      <c r="N8" s="5" t="n">
+      <c r="N9" s="5" t="n">
         <v>1.25</v>
       </c>
-      <c r="O8" s="5" t="n">
+      <c r="O9" s="5" t="n">
         <v>1.25</v>
       </c>
-      <c r="P8" s="4" t="n">
+      <c r="P9" s="4" t="n">
         <v>1.25</v>
       </c>
-      <c r="Q8" s="5" t="n">
+      <c r="Q9" s="5" t="n">
         <v>1.25</v>
       </c>
-      <c r="R8" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="S8" s="5" t="n">
+      <c r="R9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="S9" s="5" t="n">
         <v>1.25</v>
       </c>
-      <c r="T8" s="5" t="n">
+      <c r="T9" s="5" t="n">
         <v>1.25</v>
       </c>
-      <c r="U8" s="5" t="n">
+      <c r="U9" s="5" t="n">
         <v>1.25</v>
       </c>
-      <c r="V8" s="34" t="n">
+      <c r="V9" s="33" t="n">
         <v>1.25</v>
       </c>
-      <c r="W8" s="5" t="n">
+      <c r="W9" s="5" t="n">
         <v>1.25</v>
       </c>
-      <c r="X8" s="4" t="n">
+      <c r="X9" s="4" t="n">
         <v>1.25</v>
       </c>
-      <c r="Y8" s="5" t="n">
+      <c r="Y9" s="5" t="n">
         <v>1.25</v>
       </c>
-      <c r="Z8" s="5" t="n">
+      <c r="Z9" s="5" t="n">
         <v>1.25</v>
       </c>
-      <c r="AA8" s="5" t="n">
+      <c r="AA9" s="5" t="n">
         <v>1.25</v>
       </c>
-      <c r="AB8" s="34" t="n">
+      <c r="AB9" s="33" t="n">
         <v>1.25</v>
       </c>
-      <c r="AC8" s="34" t="n">
+      <c r="AC9" s="33" t="n">
         <v>1.25</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="38" t="s">
-        <v>186</v>
-      </c>
-      <c r="B9" s="4" t="n">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="B10" s="4" t="n">
         <v>1.5</v>
       </c>
-      <c r="C9" s="5" t="n">
+      <c r="C10" s="5" t="n">
         <v>1.5</v>
       </c>
-      <c r="D9" s="5" t="n">
+      <c r="D10" s="5" t="n">
         <v>1.5</v>
       </c>
-      <c r="E9" s="4" t="n">
+      <c r="E10" s="4" t="n">
         <v>1.5</v>
       </c>
-      <c r="F9" s="5" t="n">
+      <c r="F10" s="5" t="n">
         <v>1.25</v>
       </c>
-      <c r="G9" s="5" t="n">
+      <c r="G10" s="5" t="n">
         <v>1.5</v>
       </c>
-      <c r="H9" s="5" t="n">
+      <c r="H10" s="5" t="n">
         <v>1.5</v>
       </c>
-      <c r="I9" s="34" t="n">
+      <c r="I10" s="33" t="n">
         <v>1.5</v>
       </c>
-      <c r="J9" s="34" t="n">
+      <c r="J10" s="33" t="n">
         <v>1.5</v>
       </c>
-      <c r="K9" s="5" t="n">
+      <c r="K10" s="5" t="n">
         <v>1.5</v>
       </c>
-      <c r="L9" s="4" t="n">
+      <c r="L10" s="4" t="n">
         <v>1.5</v>
       </c>
-      <c r="M9" s="5" t="n">
+      <c r="M10" s="5" t="n">
         <v>1.5</v>
       </c>
-      <c r="N9" s="5" t="n">
+      <c r="N10" s="5" t="n">
         <v>1.5</v>
       </c>
-      <c r="O9" s="5" t="n">
+      <c r="O10" s="5" t="n">
         <v>1.5</v>
       </c>
-      <c r="P9" s="4" t="n">
+      <c r="P10" s="4" t="n">
         <v>1.5</v>
       </c>
-      <c r="Q9" s="5" t="n">
+      <c r="Q10" s="5" t="n">
         <v>1.5</v>
       </c>
-      <c r="R9" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="S9" s="5" t="n">
+      <c r="R10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="S10" s="5" t="n">
         <v>1.5</v>
       </c>
-      <c r="T9" s="5" t="n">
+      <c r="T10" s="5" t="n">
         <v>1.5</v>
       </c>
-      <c r="U9" s="5" t="n">
+      <c r="U10" s="5" t="n">
         <v>1.5</v>
       </c>
-      <c r="V9" s="34" t="n">
+      <c r="V10" s="33" t="n">
         <v>1.5</v>
       </c>
-      <c r="W9" s="5" t="n">
+      <c r="W10" s="5" t="n">
         <v>1.5</v>
       </c>
-      <c r="X9" s="4" t="n">
+      <c r="X10" s="4" t="n">
         <v>1.5</v>
       </c>
-      <c r="Y9" s="5" t="n">
+      <c r="Y10" s="5" t="n">
         <v>1.5</v>
       </c>
-      <c r="Z9" s="5" t="n">
+      <c r="Z10" s="5" t="n">
         <v>1.5</v>
       </c>
-      <c r="AA9" s="5" t="n">
+      <c r="AA10" s="5" t="n">
         <v>1.5</v>
       </c>
-      <c r="AB9" s="34" t="n">
+      <c r="AB10" s="33" t="n">
         <v>1.5</v>
       </c>
-      <c r="AC9" s="34" t="n">
+      <c r="AC10" s="33" t="n">
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="39" t="s">
+    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="4" t="n">
+      <c r="B11" s="4" t="n">
         <v>0.5</v>
       </c>
-      <c r="C10" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="5" t="n">
+      <c r="C11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5" t="n">
         <v>0.75</v>
       </c>
-      <c r="E10" s="4" t="n">
+      <c r="E11" s="4" t="n">
         <v>0.5</v>
       </c>
-      <c r="F10" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" s="5" t="n">
+      <c r="F11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="I10" s="34" t="n">
+      <c r="I11" s="33" t="n">
         <v>0.5</v>
       </c>
-      <c r="J10" s="34" t="n">
+      <c r="J11" s="33" t="n">
         <v>0.5</v>
       </c>
-      <c r="K10" s="5" t="n">
+      <c r="K11" s="5" t="n">
         <v>0.5</v>
       </c>
-      <c r="L10" s="4" t="n">
+      <c r="L11" s="4" t="n">
         <v>0.5</v>
       </c>
-      <c r="M10" s="5" t="n">
+      <c r="M11" s="5" t="n">
         <v>0.5</v>
       </c>
-      <c r="N10" s="5" t="n">
+      <c r="N11" s="5" t="n">
         <v>0.5</v>
       </c>
-      <c r="O10" s="5" t="n">
+      <c r="O11" s="5" t="n">
         <v>0.5</v>
       </c>
-      <c r="P10" s="4" t="n">
+      <c r="P11" s="4" t="n">
         <v>0.5</v>
       </c>
-      <c r="Q10" s="5" t="n">
+      <c r="Q11" s="5" t="n">
         <v>0.5</v>
       </c>
-      <c r="R10" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="S10" s="5" t="n">
+      <c r="R11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="S11" s="5" t="n">
         <v>0.5</v>
       </c>
-      <c r="T10" s="5" t="n">
+      <c r="T11" s="5" t="n">
         <v>0.5</v>
       </c>
-      <c r="U10" s="5" t="n">
+      <c r="U11" s="5" t="n">
         <v>0.5</v>
       </c>
-      <c r="V10" s="34" t="n">
+      <c r="V11" s="33" t="n">
         <v>0.5</v>
       </c>
-      <c r="W10" s="5" t="n">
+      <c r="W11" s="5" t="n">
         <v>0.5</v>
       </c>
-      <c r="X10" s="4" t="n">
+      <c r="X11" s="4" t="n">
         <v>0.5</v>
       </c>
-      <c r="Y10" s="5" t="n">
+      <c r="Y11" s="5" t="n">
         <v>0.5</v>
       </c>
-      <c r="Z10" s="5" t="n">
+      <c r="Z11" s="5" t="n">
         <v>0.5</v>
       </c>
-      <c r="AA10" s="5" t="n">
+      <c r="AA11" s="5" t="n">
         <v>0.5</v>
       </c>
-      <c r="AB10" s="34" t="n">
+      <c r="AB11" s="33" t="n">
         <v>0.5</v>
       </c>
-      <c r="AC10" s="34" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="39" t="s">
-        <v>187</v>
-      </c>
-      <c r="B11" s="4" t="n">
+      <c r="AC11" s="33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="B12" s="4" t="n">
         <v>0.75</v>
       </c>
-      <c r="C11" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="4" t="n">
+      <c r="C12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4" t="n">
         <v>0.75</v>
       </c>
-      <c r="F11" s="5" t="n">
+      <c r="F12" s="5" t="n">
         <v>1.25</v>
       </c>
-      <c r="G11" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="34" t="n">
+      <c r="G12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="33" t="n">
         <v>0.75</v>
       </c>
-      <c r="J11" s="34" t="n">
+      <c r="J12" s="33" t="n">
         <v>0.75</v>
       </c>
-      <c r="K11" s="5" t="n">
+      <c r="K12" s="5" t="n">
         <v>0.75</v>
       </c>
-      <c r="L11" s="4" t="n">
+      <c r="L12" s="4" t="n">
         <v>0.75</v>
       </c>
-      <c r="M11" s="5" t="n">
+      <c r="M12" s="5" t="n">
         <v>0.75</v>
       </c>
-      <c r="N11" s="5" t="n">
+      <c r="N12" s="5" t="n">
         <v>0.75</v>
       </c>
-      <c r="O11" s="5" t="n">
+      <c r="O12" s="5" t="n">
         <v>0.75</v>
       </c>
-      <c r="P11" s="4" t="n">
+      <c r="P12" s="4" t="n">
         <v>0.75</v>
       </c>
-      <c r="Q11" s="5" t="n">
+      <c r="Q12" s="5" t="n">
         <v>0.75</v>
       </c>
-      <c r="R11" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="S11" s="5" t="n">
+      <c r="R12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="S12" s="5" t="n">
         <v>0.75</v>
       </c>
-      <c r="T11" s="5" t="n">
+      <c r="T12" s="5" t="n">
         <v>0.75</v>
       </c>
-      <c r="U11" s="5" t="n">
+      <c r="U12" s="5" t="n">
         <v>0.75</v>
       </c>
-      <c r="V11" s="34" t="n">
+      <c r="V12" s="33" t="n">
         <v>0.75</v>
       </c>
-      <c r="W11" s="5" t="n">
+      <c r="W12" s="5" t="n">
         <v>0.75</v>
       </c>
-      <c r="X11" s="4" t="n">
+      <c r="X12" s="4" t="n">
         <v>0.75</v>
       </c>
-      <c r="Y11" s="5" t="n">
+      <c r="Y12" s="5" t="n">
         <v>0.75</v>
       </c>
-      <c r="Z11" s="5" t="n">
+      <c r="Z12" s="5" t="n">
         <v>0.75</v>
       </c>
-      <c r="AA11" s="5" t="n">
+      <c r="AA12" s="5" t="n">
         <v>0.75</v>
       </c>
-      <c r="AB11" s="34" t="n">
+      <c r="AB12" s="33" t="n">
         <v>0.75</v>
       </c>
-      <c r="AC11" s="34" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="40" t="s">
-        <v>188</v>
-      </c>
-      <c r="B12" s="41" t="n">
+      <c r="AC12" s="33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="B13" s="40" t="n">
         <v>1.25</v>
       </c>
-      <c r="C12" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" s="41" t="n">
+      <c r="C13" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="40" t="n">
         <v>1.25</v>
       </c>
-      <c r="E12" s="41" t="n">
+      <c r="E13" s="40" t="n">
         <v>0.75</v>
       </c>
-      <c r="F12" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="41" t="n">
+      <c r="F13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="40" t="n">
         <v>1.25</v>
       </c>
-      <c r="H12" s="41" t="n">
+      <c r="H13" s="40" t="n">
         <v>0.25</v>
       </c>
-      <c r="I12" s="41" t="n">
+      <c r="I13" s="40" t="n">
         <v>1.25</v>
       </c>
-      <c r="J12" s="41" t="n">
+      <c r="J13" s="40" t="n">
         <v>1.25</v>
       </c>
-      <c r="K12" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="L12" s="41" t="n">
+      <c r="K13" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" s="40" t="n">
         <v>0.75</v>
       </c>
-      <c r="M12" s="41" t="n">
+      <c r="M13" s="40" t="n">
         <v>0.75</v>
       </c>
-      <c r="N12" s="41" t="n">
+      <c r="N13" s="40" t="n">
         <v>0.75</v>
       </c>
-      <c r="O12" s="41" t="n">
+      <c r="O13" s="40" t="n">
         <v>0.75</v>
       </c>
-      <c r="P12" s="41" t="n">
+      <c r="P13" s="40" t="n">
         <v>0.5</v>
       </c>
-      <c r="Q12" s="41" t="n">
+      <c r="Q13" s="40" t="n">
         <v>0.5</v>
       </c>
-      <c r="R12" s="41" t="n">
+      <c r="R13" s="40" t="n">
         <v>0.5</v>
       </c>
-      <c r="S12" s="41" t="n">
+      <c r="S13" s="40" t="n">
         <v>0.5</v>
       </c>
-      <c r="T12" s="41" t="n">
+      <c r="T13" s="40" t="n">
         <v>0.5</v>
       </c>
-      <c r="U12" s="41" t="n">
+      <c r="U13" s="40" t="n">
         <v>0.5</v>
       </c>
-      <c r="V12" s="41" t="n">
+      <c r="V13" s="40" t="n">
         <v>0.5</v>
       </c>
-      <c r="W12" s="41" t="n">
+      <c r="W13" s="40" t="n">
         <v>0.5</v>
       </c>
-      <c r="X12" s="41" t="n">
+      <c r="X13" s="40" t="n">
         <v>1.25</v>
       </c>
-      <c r="Y12" s="41" t="n">
+      <c r="Y13" s="40" t="n">
         <v>1.25</v>
       </c>
-      <c r="Z12" s="41" t="n">
+      <c r="Z13" s="40" t="n">
         <v>1.25</v>
       </c>
-      <c r="AA12" s="41" t="n">
+      <c r="AA13" s="40" t="n">
         <v>1.25</v>
       </c>
-      <c r="AB12" s="41" t="n">
+      <c r="AB13" s="40" t="n">
         <v>1.25</v>
       </c>
-      <c r="AC12" s="41" t="n">
+      <c r="AC13" s="40" t="n">
         <v>1.25</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="40" t="s">
-        <v>189</v>
-      </c>
-      <c r="B13" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="41" t="n">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="B14" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="40" t="n">
         <v>0.75</v>
       </c>
-      <c r="F13" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="L13" s="41" t="n">
+      <c r="F14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" s="40" t="n">
         <v>0</v>
       </c>
-      <c r="M13" s="34" t="n">
+      <c r="M14" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="N13" s="34" t="n">
+      <c r="N14" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="O13" s="34" t="n">
+      <c r="O14" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="P13" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" s="42" t="n">
-        <v>1</v>
-      </c>
-      <c r="S13" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="T13" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="U13" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="V13" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="W13" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="X13" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y13" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z13" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA13" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB13" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC13" s="34" t="n">
+      <c r="P14" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="S14" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="T14" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="U14" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="W14" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="X14" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB14" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC14" s="33" t="n">
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" s="34" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="34" t="s">
-        <v>190</v>
-      </c>
-      <c r="B14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="I14" s="43" t="s">
+    <row r="15" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="K14" s="43" t="s">
-        <v>191</v>
-      </c>
-      <c r="L14" s="41"/>
-      <c r="N14" s="34" t="s">
+      <c r="B15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="I15" s="42" t="s">
         <v>192</v>
       </c>
-      <c r="O14" s="42"/>
-      <c r="Q14" s="43"/>
-      <c r="T14" s="43" t="s">
+      <c r="K15" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="L15" s="40"/>
+      <c r="N15" s="33" t="s">
         <v>193</v>
       </c>
-      <c r="V14" s="43" t="s">
-        <v>191</v>
-      </c>
-      <c r="W14" s="43"/>
-      <c r="X14" s="43" t="s">
-        <v>191</v>
-      </c>
-      <c r="Y14" s="43"/>
-      <c r="AB14" s="43" t="s">
-        <v>191</v>
-      </c>
-      <c r="AC14" s="43"/>
-    </row>
+      <c r="O15" s="41"/>
+      <c r="Q15" s="42"/>
+      <c r="T15" s="42" t="s">
+        <v>194</v>
+      </c>
+      <c r="V15" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="W15" s="42"/>
+      <c r="X15" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y15" s="42"/>
+      <c r="AB15" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC15" s="42"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <conditionalFormatting sqref="P6:AC13 A6:N13">
+  <conditionalFormatting sqref="Z6:AC7 A6:N14 P6:Y7 P9:AC14 O8:AC8">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O6:O13">
+  <conditionalFormatting sqref="O9:O14 O6:O7">
     <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
       <formula>0</formula>
     </cfRule>
